--- a/data/lens_discretization.xlsx
+++ b/data/lens_discretization.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vahlin\Documents\Exjobb\Vera simulations\Fresnel lens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CHIT\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1B58B7-23A5-4093-9AC5-E58A3C4BA25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2192B45-6578-44FD-AE88-625803AFC241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2674D905-5BF6-41A4-84E9-E0FBCC1957D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2674D905-5BF6-41A4-84E9-E0FBCC1957D6}"/>
   </bookViews>
   <sheets>
     <sheet name="x-pol" sheetId="1" r:id="rId1"/>
@@ -682,8 +682,8 @@
   <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M56" sqref="M56"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/lens_discretization.xlsx
+++ b/data/lens_discretization.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CHIT\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vahlin\Documents\Exjobb\Vera simulations\Fresnel lens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2192B45-6578-44FD-AE88-625803AFC241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91F2EA6-9842-407E-B8AC-ECB802B25627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2674D905-5BF6-41A4-84E9-E0FBCC1957D6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2674D905-5BF6-41A4-84E9-E0FBCC1957D6}"/>
   </bookViews>
   <sheets>
     <sheet name="x-pol" sheetId="1" r:id="rId1"/>
-    <sheet name="x-pol, 4h" sheetId="5" r:id="rId2"/>
-    <sheet name="xy-pol" sheetId="8" r:id="rId3"/>
+    <sheet name="xy-pol" sheetId="8" r:id="rId2"/>
+    <sheet name="x-pol, 4h" sheetId="5" r:id="rId3"/>
     <sheet name="pol, test" sheetId="7" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
     <sheet name="80" sheetId="4" r:id="rId6"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
   <si>
     <t>P_d</t>
   </si>
@@ -257,6 +257,18 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>gamla 3hålen</t>
+  </si>
+  <si>
+    <t>eta (T+1)</t>
+  </si>
+  <si>
+    <t>eta (T0)</t>
+  </si>
+  <si>
+    <t>eta (T-1)</t>
+  </si>
 </sst>
 </file>
 
@@ -333,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -345,6 +357,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,11 +694,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0660F2A6-D4DB-4F28-8CF4-2FAB6EBBA0F1}">
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:X56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,7 +713,7 @@
     <col min="20" max="20" width="14" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -748,13 +763,19 @@
         <v>16</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="U1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D2">
         <v>85</v>
       </c>
@@ -803,8 +824,16 @@
       <c r="U2">
         <v>0.70255000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W2">
+        <f t="shared" ref="W2:W24" si="3">R2/(R2+S2+Q2)</f>
+        <v>0.15674485405163813</v>
+      </c>
+      <c r="X2">
+        <f t="shared" ref="X2:X24" si="4">Q2/(Q2+R2+S2)</f>
+        <v>1.806722150814968E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>84</v>
       </c>
@@ -853,8 +882,16 @@
       <c r="U3">
         <v>0.68098999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W3">
+        <f t="shared" si="3"/>
+        <v>0.17185198673114113</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="4"/>
+        <v>1.5158746125143726E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>83</v>
       </c>
@@ -897,14 +934,22 @@
         <v>0.52893000000000001</v>
       </c>
       <c r="T4" s="5">
-        <f t="shared" ref="T4:T7" si="3">S4/(S4+R4+Q4)</f>
+        <f t="shared" ref="T4:T7" si="5">S4/(S4+R4+Q4)</f>
         <v>0.7989673981181753</v>
       </c>
       <c r="U4">
         <v>0.66202000000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W4">
+        <f t="shared" si="3"/>
+        <v>0.18411913893449866</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="4"/>
+        <v>1.6913462947326124E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>82</v>
       </c>
@@ -947,14 +992,22 @@
         <v>0.55020000000000002</v>
       </c>
       <c r="T5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.81091238697411172</v>
       </c>
       <c r="U5">
         <v>0.67849000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W5">
+        <f t="shared" si="3"/>
+        <v>0.17369324755525092</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="4"/>
+        <v>1.5394365470637217E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>81</v>
       </c>
@@ -997,14 +1050,22 @@
         <v>0.58233000000000001</v>
       </c>
       <c r="T6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.81860330950045423</v>
       </c>
       <c r="U6">
         <v>0.71136999999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W6">
+        <f t="shared" si="3"/>
+        <v>0.16880099841123514</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="4"/>
+        <v>1.2595692088310699E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>80</v>
       </c>
@@ -1047,14 +1108,22 @@
         <v>0.63829999999999998</v>
       </c>
       <c r="T7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.84183565806410765</v>
       </c>
       <c r="U7">
         <v>0.75822000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W7">
+        <f t="shared" si="3"/>
+        <v>0.13726814239591467</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="4"/>
+        <v>2.0896199539977633E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>79</v>
       </c>
@@ -1103,8 +1172,16 @@
       <c r="U8">
         <v>0.80396000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W8">
+        <f t="shared" si="3"/>
+        <v>0.12257046974857021</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="4"/>
+        <v>2.0871633236396743E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>78</v>
       </c>
@@ -1153,8 +1230,16 @@
       <c r="U9">
         <v>0.83765000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W9">
+        <f t="shared" si="3"/>
+        <v>0.10018336926702434</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="4"/>
+        <v>2.5505757747232152E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>77</v>
       </c>
@@ -1203,8 +1288,16 @@
       <c r="U10">
         <v>0.84713000000000005</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W10">
+        <f t="shared" si="3"/>
+        <v>8.8182451335686377E-2</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="4"/>
+        <v>2.7041894396373643E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>76</v>
       </c>
@@ -1253,58 +1346,74 @@
       <c r="U11">
         <v>0.84180999999999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="3">
+      <c r="W11">
+        <f t="shared" si="3"/>
+        <v>7.7815474238903698E-2</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="4"/>
+        <v>3.2211467643606891E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D12">
         <v>75</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>1.3089969389957472</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <f t="shared" si="1"/>
         <v>1018.7117615235217</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12">
         <v>1019</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12">
         <v>240</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12">
         <v>108</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12">
         <v>700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12">
         <v>110</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12">
         <v>527</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12">
         <v>798</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12">
         <v>2.8902000000000001E-2</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12">
         <v>5.4862000000000001E-2</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12">
         <v>0.74673</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="5">
         <f>S12/(S12+R12+Q12)</f>
         <v>0.89913954826886167</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12">
         <v>0.83048999999999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W12">
+        <f t="shared" si="3"/>
+        <v>6.6059477852940543E-2</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="4"/>
+        <v>3.4800973878197791E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>74</v>
       </c>
@@ -1347,14 +1456,22 @@
         <v>0.73558999999999997</v>
       </c>
       <c r="T13" s="5">
-        <f t="shared" ref="T13:T24" si="4">S13/(S13+R13+Q13)</f>
+        <f t="shared" ref="T13:T24" si="6">S13/(S13+R13+Q13)</f>
         <v>0.8982209951632657</v>
       </c>
       <c r="U13">
         <v>0.81894</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W13">
+        <f t="shared" si="3"/>
+        <v>7.1426390912165821E-2</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="4"/>
+        <v>3.035261392456844E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>73</v>
       </c>
@@ -1397,14 +1514,22 @@
         <v>0.71875999999999995</v>
       </c>
       <c r="T14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.89993827291883954</v>
       </c>
       <c r="U14">
         <v>0.79867999999999995</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W14">
+        <f t="shared" si="3"/>
+        <v>7.6868371068654795E-2</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="4"/>
+        <v>2.3193356012505682E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>72</v>
       </c>
@@ -1447,14 +1572,22 @@
         <v>0.71608000000000005</v>
       </c>
       <c r="T15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.90936220955409408</v>
       </c>
       <c r="U15">
         <v>0.78744999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W15">
+        <f t="shared" si="3"/>
+        <v>6.0446782220653174E-2</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="4"/>
+        <v>3.0191008225252804E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D16">
         <v>71</v>
       </c>
@@ -1497,14 +1630,22 @@
         <v>0.71928999999999998</v>
       </c>
       <c r="T16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.91329714630352665</v>
       </c>
       <c r="U16">
         <v>0.78756999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W16">
+        <f t="shared" si="3"/>
+        <v>5.901914103418722E-2</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="4"/>
+        <v>2.7683712662286131E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>70</v>
       </c>
@@ -1546,15 +1687,23 @@
       <c r="S17">
         <v>0.69986999999999999</v>
       </c>
-      <c r="T17">
-        <f t="shared" si="4"/>
+      <c r="T17" s="5">
+        <f t="shared" si="6"/>
         <v>0.91218699657475333</v>
       </c>
       <c r="U17">
         <v>0.76724999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W17">
+        <f t="shared" si="3"/>
+        <v>7.1515710777796906E-2</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="4"/>
+        <v>1.6297292647449831E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>69</v>
       </c>
@@ -1597,14 +1746,22 @@
         <v>0.70808000000000004</v>
       </c>
       <c r="T18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.92519204058886784</v>
       </c>
       <c r="U18">
         <v>0.76534000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18">
+        <f t="shared" si="3"/>
+        <v>5.021474312488812E-2</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="4"/>
+        <v>2.4593216286244023E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>68</v>
       </c>
@@ -1647,14 +1804,22 @@
         <v>0.66120999999999996</v>
       </c>
       <c r="T19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.87761796001799219</v>
       </c>
       <c r="U19">
         <v>0.75341000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W19">
+        <f t="shared" si="3"/>
+        <v>0.12223950222134727</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="4"/>
+        <v>1.4253776066050451E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>67</v>
       </c>
@@ -1697,14 +1862,22 @@
         <v>0.68723000000000001</v>
       </c>
       <c r="T20" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.92943198118063552</v>
       </c>
       <c r="U20">
         <v>0.73941000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W20">
+        <f t="shared" si="3"/>
+        <v>5.8223558665668751E-2</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="4"/>
+        <v>1.2344460153695804E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>66</v>
       </c>
@@ -1747,14 +1920,22 @@
         <v>0.64666000000000001</v>
       </c>
       <c r="T21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.87185829478129451</v>
       </c>
       <c r="U21">
         <v>0.74170000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21">
+        <f t="shared" si="3"/>
+        <v>0.12519160294732487</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="4"/>
+        <v>2.9501022713805565E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>65</v>
       </c>
@@ -1796,15 +1977,23 @@
       <c r="S22">
         <v>0.64698999999999995</v>
       </c>
-      <c r="T22">
-        <f t="shared" si="4"/>
+      <c r="T22" s="5">
+        <f t="shared" si="6"/>
         <v>0.92684250291512238</v>
       </c>
       <c r="U22">
         <v>0.69806000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W22">
+        <f t="shared" si="3"/>
+        <v>7.2125792263822597E-2</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="4"/>
+        <v>1.0317048210551044E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>64</v>
       </c>
@@ -1853,8 +2042,16 @@
       <c r="U23">
         <v>0.71392</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W23">
+        <f t="shared" si="3"/>
+        <v>8.3976195538806628E-2</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="4"/>
+        <v>1.8974205110232766E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>63</v>
       </c>
@@ -1897,14 +2094,22 @@
         <v>0.61036000000000001</v>
       </c>
       <c r="T24" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.89975824046229147</v>
       </c>
       <c r="U24">
         <v>0.67835999999999996</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W24">
+        <f t="shared" si="3"/>
+        <v>9.4137331210566666E-2</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="4"/>
+        <v>6.1044283271419293E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>62</v>
       </c>
@@ -1946,15 +2151,23 @@
       <c r="S25">
         <v>0.60358000000000001</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="5">
         <f>S25/(S25+R25+Q25)</f>
         <v>0.90870303185052459</v>
       </c>
       <c r="U25">
         <v>0.66422000000000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W25">
+        <f>R25/(R25+S25+Q25)</f>
+        <v>8.1760388930558398E-2</v>
+      </c>
+      <c r="X25">
+        <f>Q25/(Q25+R25+S25)</f>
+        <v>9.5365792189170667E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1999,15 +2212,23 @@
       <c r="S26">
         <v>0.58828999999999998</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="5">
         <f>S26/(S26+R26+Q26)</f>
         <v>0.96197493557291058</v>
       </c>
       <c r="U26">
         <v>0.61155000000000004</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W26">
+        <f>R26/(R26+S26+Q26)</f>
+        <v>2.2670486506285729E-2</v>
+      </c>
+      <c r="X26">
+        <f>Q26/(Q26+R26+S26)</f>
+        <v>1.5354577920803738E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>60</v>
       </c>
@@ -2056,8 +2277,16 @@
       <c r="U27">
         <v>0.66771000000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W27">
+        <f t="shared" ref="W27:W56" si="7">R27/(R27+S27+Q27)</f>
+        <v>7.281924541577374E-2</v>
+      </c>
+      <c r="X27">
+        <f t="shared" ref="X27:X56" si="8">Q27/(Q27+R27+S27)</f>
+        <v>7.9766892149428763E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>59</v>
       </c>
@@ -2100,14 +2329,22 @@
         <v>0.60660999999999998</v>
       </c>
       <c r="T28" s="5">
-        <f t="shared" ref="T28" si="5">S28/(S28+R28+Q28)</f>
+        <f t="shared" ref="T28" si="9">S28/(S28+R28+Q28)</f>
         <v>0.90260963862879384</v>
       </c>
       <c r="U28">
         <v>0.67205999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W28">
+        <f t="shared" si="7"/>
+        <v>8.9667268991688864E-2</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="8"/>
+        <v>7.7230923795171416E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>58</v>
       </c>
@@ -2116,7 +2353,7 @@
         <v>1.0122909661567112</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29:F56" si="6">$B$1/SIN(E29)</f>
+        <f t="shared" ref="F29:F56" si="10">$B$1/SIN(E29)</f>
         <v>1160.3115489083029</v>
       </c>
       <c r="I29">
@@ -2156,8 +2393,16 @@
       <c r="U29">
         <v>0.68691000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W29">
+        <f t="shared" si="7"/>
+        <v>0.10976212843349671</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="8"/>
+        <v>1.2993936492948815E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>57</v>
       </c>
@@ -2166,7 +2411,7 @@
         <v>0.99483767363676778</v>
       </c>
       <c r="F30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1173.2854801505723</v>
       </c>
       <c r="I30">
@@ -2206,8 +2451,16 @@
       <c r="U30">
         <v>0.70867000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W30">
+        <f t="shared" si="7"/>
+        <v>0.13040699003479778</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="8"/>
+        <v>2.4554585658123854E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>56</v>
       </c>
@@ -2216,7 +2469,7 @@
         <v>0.97738438111682457</v>
       </c>
       <c r="F31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1186.9184613278428</v>
       </c>
       <c r="I31">
@@ -2256,8 +2509,16 @@
       <c r="U31">
         <v>0.72655999999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W31">
+        <f t="shared" si="7"/>
+        <v>0.13822690242636868</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="8"/>
+        <v>2.781467162336438E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>55</v>
       </c>
@@ -2266,7 +2527,7 @@
         <v>0.95993108859688125</v>
       </c>
       <c r="F32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1201.2421953412727</v>
       </c>
       <c r="I32">
@@ -2299,8 +2560,8 @@
       <c r="S32">
         <v>0.59882000000000002</v>
       </c>
-      <c r="T32">
-        <f t="shared" ref="T32:T56" si="7">S32/(S32+R32+Q32)</f>
+      <c r="T32" s="5">
+        <f t="shared" ref="T32:T56" si="11">S32/(S32+R32+Q32)</f>
         <v>0.9081448530622781</v>
       </c>
       <c r="U32">
@@ -2309,8 +2570,16 @@
       <c r="V32" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="W32">
+        <f t="shared" si="7"/>
+        <v>8.45662691567729E-2</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="8"/>
+        <v>7.2888777809490676E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>54</v>
       </c>
@@ -2319,7 +2588,7 @@
         <v>0.94247779607693793</v>
       </c>
       <c r="F33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1216.290889859793</v>
       </c>
       <c r="I33">
@@ -2353,14 +2622,22 @@
         <v>0.65239999999999998</v>
       </c>
       <c r="T33" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.89992549819718337</v>
       </c>
       <c r="U33">
         <v>0.72494999999999998</v>
       </c>
-    </row>
-    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <f t="shared" si="7"/>
+        <v>8.9907026550423083E-2</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="8"/>
+        <v>1.0167475252393652E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>53</v>
       </c>
@@ -2369,7 +2646,7 @@
         <v>0.92502450355699462</v>
       </c>
       <c r="F34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1232.1014876257261</v>
       </c>
       <c r="I34">
@@ -2403,14 +2680,22 @@
         <v>0.64246000000000003</v>
       </c>
       <c r="T34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.89551997475382472</v>
       </c>
       <c r="U34">
         <v>0.71741999999999995</v>
       </c>
-    </row>
-    <row r="35" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="W34">
+        <f t="shared" si="7"/>
+        <v>9.9688381462572029E-2</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="8"/>
+        <v>4.7916437836032551E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>52</v>
       </c>
@@ -2419,7 +2704,7 @@
         <v>0.90757121103705141</v>
       </c>
       <c r="F35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1248.7139236314174</v>
       </c>
       <c r="I35">
@@ -2453,14 +2738,22 @@
         <v>0.64344999999999997</v>
       </c>
       <c r="T35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.89799667680521134</v>
       </c>
       <c r="U35">
         <v>0.71653999999999995</v>
       </c>
-    </row>
-    <row r="36" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="W35">
+        <f t="shared" si="7"/>
+        <v>9.8631003403302039E-2</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="8"/>
+        <v>3.372319791486693E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>51</v>
       </c>
@@ -2469,7 +2762,7 @@
         <v>0.89011791851710798</v>
       </c>
       <c r="F36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1266.1714128388769</v>
       </c>
       <c r="I36">
@@ -2503,14 +2796,22 @@
         <v>0.63256999999999997</v>
       </c>
       <c r="T36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.90246882440085552</v>
       </c>
       <c r="U36">
         <v>0.70094000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="W36">
+        <f t="shared" si="7"/>
+        <v>9.6074830568636527E-2</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="8"/>
+        <v>1.4563450305079178E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>50</v>
       </c>
@@ -2519,7 +2820,7 @@
         <v>0.87266462599716477</v>
       </c>
       <c r="F37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1284.5207727029622</v>
       </c>
       <c r="I37">
@@ -2552,15 +2853,23 @@
       <c r="S37">
         <v>0.61767000000000005</v>
       </c>
-      <c r="T37">
-        <f t="shared" si="7"/>
+      <c r="T37" s="5">
+        <f t="shared" si="11"/>
         <v>0.90448075787366256</v>
       </c>
       <c r="U37">
         <v>0.68289999999999995</v>
       </c>
-    </row>
-    <row r="38" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="W37">
+        <f t="shared" si="7"/>
+        <v>9.5084185812829708E-2</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="8"/>
+        <v>4.350563135076419E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D38">
         <v>49</v>
       </c>
@@ -2569,7 +2878,7 @@
         <v>0.85521133347722145</v>
       </c>
       <c r="F38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1303.8127854552304</v>
       </c>
       <c r="I38">
@@ -2603,14 +2912,22 @@
         <v>0.61053000000000002</v>
       </c>
       <c r="T38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.89996783712800621</v>
       </c>
       <c r="U38">
         <v>0.67839000000000005</v>
       </c>
-    </row>
-    <row r="39" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="W38">
+        <f t="shared" si="7"/>
+        <v>9.9551746647076958E-2</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="8"/>
+        <v>4.8041622491669291E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>48</v>
       </c>
@@ -2619,7 +2936,7 @@
         <v>0.83775804095727813</v>
       </c>
       <c r="F39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1324.1026059326744</v>
       </c>
       <c r="I39">
@@ -2653,14 +2970,22 @@
         <v>0.60679000000000005</v>
       </c>
       <c r="T39" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.91103531937051108</v>
       </c>
       <c r="U39">
         <v>0.66603999999999997</v>
       </c>
-    </row>
-    <row r="40" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="W39">
+        <f t="shared" si="7"/>
+        <v>8.7471642094507113E-2</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="8"/>
+        <v>1.4930385349818179E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D40">
         <v>47</v>
       </c>
@@ -2669,7 +2994,7 @@
         <v>0.82030474843733492</v>
       </c>
       <c r="F40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1345.4502217210179</v>
       </c>
       <c r="I40">
@@ -2703,14 +3028,22 @@
         <v>0.60187000000000002</v>
       </c>
       <c r="T40" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.91624377653132916</v>
       </c>
       <c r="U40">
         <v>0.65688999999999997</v>
       </c>
-    </row>
-    <row r="41" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="W40">
+        <f t="shared" si="7"/>
+        <v>8.1140102163456962E-2</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="8"/>
+        <v>2.6161213052138988E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>46</v>
       </c>
@@ -2719,7 +3052,7 @@
         <v>0.80285145591739149</v>
       </c>
       <c r="F41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1367.920973560412</v>
       </c>
       <c r="I41">
@@ -2753,14 +3086,22 @@
         <v>0.56940999999999997</v>
       </c>
       <c r="T41" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.94344405710271328</v>
       </c>
       <c r="U41">
         <v>0.60355000000000003</v>
       </c>
-    </row>
-    <row r="42" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="W41">
+        <f t="shared" si="7"/>
+        <v>2.9898400116644352E-2</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="8"/>
+        <v>2.6657542780642338E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D42">
         <v>45</v>
       </c>
@@ -2769,7 +3110,7 @@
         <v>0.78539816339744828</v>
       </c>
       <c r="F42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1391.5861453751256</v>
       </c>
       <c r="I42">
@@ -2802,15 +3143,23 @@
       <c r="S42">
         <v>0.48359000000000002</v>
       </c>
-      <c r="T42">
-        <f t="shared" si="7"/>
+      <c r="T42" s="5">
+        <f t="shared" si="11"/>
         <v>0.87396625509643466</v>
       </c>
       <c r="U42">
         <v>0.55332000000000003</v>
       </c>
-    </row>
-    <row r="43" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="W42">
+        <f t="shared" si="7"/>
+        <v>2.1444785009975997E-2</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="8"/>
+        <v>0.10458895989358932</v>
+      </c>
+    </row>
+    <row r="43" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D43">
         <v>44</v>
       </c>
@@ -2819,7 +3168,7 @@
         <v>0.76794487087750496</v>
       </c>
       <c r="F43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1416.5236349917147</v>
       </c>
       <c r="I43">
@@ -2859,8 +3208,16 @@
       <c r="U43">
         <v>0.50102999999999998</v>
       </c>
-    </row>
-    <row r="44" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="W43">
+        <f t="shared" si="7"/>
+        <v>3.7648143638954634E-2</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="8"/>
+        <v>4.4789375571318513E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D44">
         <v>43</v>
       </c>
@@ -2869,7 +3226,7 @@
         <v>0.75049157835756164</v>
       </c>
       <c r="F44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1442.818718669391</v>
       </c>
       <c r="I44">
@@ -2903,14 +3260,22 @@
         <v>0.45067000000000002</v>
       </c>
       <c r="T44" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.91095973479948256</v>
       </c>
       <c r="U44">
         <v>0.49471999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="W44">
+        <f t="shared" si="7"/>
+        <v>3.7702134540750318E-2</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="8"/>
+        <v>5.1338130659767139E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D45">
         <v>42</v>
       </c>
@@ -2919,7 +3284,7 @@
         <v>0.73303828583761843</v>
       </c>
       <c r="F45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1470.5649250667748</v>
       </c>
       <c r="I45">
@@ -2953,14 +3318,22 @@
         <v>0.43815999999999999</v>
       </c>
       <c r="T45" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.91252725648272137</v>
       </c>
       <c r="U45">
         <v>0.48015999999999998</v>
       </c>
-    </row>
-    <row r="46" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="W45">
+        <f t="shared" si="7"/>
+        <v>4.7171677833060158E-2</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="8"/>
+        <v>4.0301065684218415E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D46">
         <v>41</v>
       </c>
@@ -2969,7 +3342,7 @@
         <v>0.715584993317675</v>
       </c>
       <c r="F46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1499.8650373185214</v>
       </c>
       <c r="I46">
@@ -3009,58 +3382,74 @@
       <c r="U46">
         <v>0.41883999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="4:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="3">
+      <c r="W46">
+        <f t="shared" si="7"/>
+        <v>7.1544297728947243E-2</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="8"/>
+        <v>1.5469669715842646E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="4:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="12">
         <v>40</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="12">
         <f t="shared" si="0"/>
         <v>0.69813170079773179</v>
       </c>
-      <c r="F47" s="3">
-        <f t="shared" si="6"/>
+      <c r="F47" s="12">
+        <f t="shared" si="10"/>
         <v>1530.832245630646</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="12">
         <v>1530</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="12">
         <v>240</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="12">
         <v>110</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="12">
         <v>700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="12">
         <v>2</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="12">
         <v>692</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="12">
         <v>1039</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="Q47" s="13">
         <v>7.8478000000000003E-3</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R47" s="12">
         <v>2.2803E-2</v>
       </c>
-      <c r="S47" s="3">
+      <c r="S47" s="12">
         <v>0.30851000000000001</v>
       </c>
-      <c r="T47" s="3">
+      <c r="T47" s="5">
         <f>S47/(S47+R47+Q47)</f>
         <v>0.90962752770957012</v>
       </c>
-      <c r="U47" s="3">
+      <c r="U47" s="12">
         <v>0.33916000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="W47" s="12">
+        <f t="shared" si="7"/>
+        <v>6.7233595391920281E-2</v>
+      </c>
+      <c r="X47" s="12">
+        <f t="shared" si="8"/>
+        <v>2.3138876898509499E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D48">
         <v>39</v>
       </c>
@@ -3069,7 +3458,7 @@
         <v>0.68067840827778847</v>
       </c>
       <c r="F48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1563.5914774006976</v>
       </c>
       <c r="I48">
@@ -3103,14 +3492,22 @@
         <v>0.30220999999999998</v>
       </c>
       <c r="T48" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.86636813980689409</v>
       </c>
       <c r="U48">
         <v>0.34882000000000002</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="W48">
+        <f t="shared" si="7"/>
+        <v>8.235958534963192E-2</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="8"/>
+        <v>5.1272274843474082E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D49">
         <v>38</v>
       </c>
@@ -3119,7 +3516,7 @@
         <v>0.66322511575784515</v>
       </c>
       <c r="F49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1598.2809375550203</v>
       </c>
       <c r="I49">
@@ -3153,14 +3550,22 @@
         <v>0.28138000000000002</v>
       </c>
       <c r="T49" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.80052120081025102</v>
       </c>
       <c r="U49">
         <v>0.35149999999999998</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="W49">
+        <f t="shared" si="7"/>
+        <v>9.4032364521929118E-2</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="8"/>
+        <v>0.10544643466781982</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D50">
         <v>37</v>
       </c>
@@ -3169,7 +3574,7 @@
         <v>0.64577182323790194</v>
       </c>
       <c r="F50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1635.0538988645235</v>
       </c>
       <c r="I50">
@@ -3203,14 +3608,22 @@
         <v>0.25235000000000002</v>
       </c>
       <c r="T50" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.7281420331422207</v>
       </c>
       <c r="U50">
         <v>0.34656999999999999</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="W50">
+        <f t="shared" si="7"/>
+        <v>0.11397219008157153</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="8"/>
+        <v>0.15788577677620777</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C51" s="7" t="s">
         <v>51</v>
       </c>
@@ -3222,7 +3635,7 @@
         <v>0.62831853071795862</v>
       </c>
       <c r="F51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1674.0807908368145</v>
       </c>
       <c r="I51">
@@ -3259,14 +3672,22 @@
         <v>0.14946000000000001</v>
       </c>
       <c r="T51" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.3577840656105023</v>
       </c>
       <c r="U51">
         <v>0.41774</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="W51">
+        <f t="shared" si="7"/>
+        <v>0.133523883391025</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="8"/>
+        <v>0.5086920509984727</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D52">
         <v>35</v>
       </c>
@@ -3275,7 +3696,7 @@
         <v>0.6108652381980153</v>
       </c>
       <c r="F52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1715.5516468911605</v>
       </c>
       <c r="I52">
@@ -3312,14 +3733,22 @@
         <v>0.14588000000000001</v>
       </c>
       <c r="T52" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.39576884364851778</v>
       </c>
       <c r="U52">
         <v>0.36859999999999998</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="W52">
+        <f t="shared" si="7"/>
+        <v>7.6286153787720537E-2</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="8"/>
+        <v>0.52794500256376165</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D53">
         <v>34</v>
       </c>
@@ -3328,7 +3757,7 @@
         <v>0.59341194567807209</v>
       </c>
       <c r="F53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1759.678983571858</v>
       </c>
       <c r="I53">
@@ -3365,14 +3794,22 @@
         <v>0.12338</v>
       </c>
       <c r="T53" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.29659865907981819</v>
       </c>
       <c r="U53">
         <v>0.41599000000000003</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="W53">
+        <f t="shared" si="7"/>
+        <v>8.6741525495032237E-2</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="8"/>
+        <v>0.61665981542514969</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D54">
         <v>33</v>
       </c>
@@ -3381,7 +3818,7 @@
         <v>0.57595865315812877</v>
       </c>
       <c r="F54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1806.7012034362365</v>
       </c>
       <c r="I54">
@@ -3418,14 +3855,22 @@
         <v>9.5057000000000003E-2</v>
       </c>
       <c r="T54" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.19405486622326201</v>
       </c>
       <c r="U54">
         <v>0.48984</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="W54">
+        <f t="shared" si="7"/>
+        <v>3.1293508572081838E-2</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="8"/>
+        <v>0.77465162520465625</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D55">
         <v>32</v>
       </c>
@@ -3434,7 +3879,7 @@
         <v>0.55850536063818546</v>
       </c>
       <c r="F55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1856.8866361630608</v>
       </c>
       <c r="I55">
@@ -3453,7 +3898,7 @@
         <v>4</v>
       </c>
       <c r="N55">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="O55">
         <v>680</v>
@@ -3462,23 +3907,31 @@
         <v>900</v>
       </c>
       <c r="Q55" s="1">
-        <v>3.6666999999999998E-2</v>
+        <v>0.11119999999999999</v>
       </c>
       <c r="R55">
-        <v>8.2683000000000006E-2</v>
+        <v>9.6723000000000003E-2</v>
       </c>
       <c r="S55">
-        <v>9.8266999999999993E-2</v>
+        <v>0.33057999999999998</v>
       </c>
       <c r="T55" s="5">
+        <f t="shared" si="11"/>
+        <v>0.61388701641402188</v>
+      </c>
+      <c r="U55">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="W55">
         <f t="shared" si="7"/>
-        <v>0.45155939104022202</v>
-      </c>
-      <c r="U55">
-        <v>0.21762000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.25">
+        <v>0.17961459824736353</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="8"/>
+        <v>0.20649838533861464</v>
+      </c>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D56">
         <v>31</v>
       </c>
@@ -3487,7 +3940,7 @@
         <v>0.54105206811824214</v>
       </c>
       <c r="F56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1910.5383619877909</v>
       </c>
       <c r="I56">
@@ -3506,7 +3959,7 @@
         <v>4</v>
       </c>
       <c r="N56">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="O56">
         <v>680</v>
@@ -3514,9 +3967,29 @@
       <c r="P56">
         <v>900</v>
       </c>
-      <c r="T56" s="5" t="e">
+      <c r="Q56" s="1">
+        <v>0.11044</v>
+      </c>
+      <c r="R56">
+        <v>0.10441</v>
+      </c>
+      <c r="S56">
+        <v>0.35069</v>
+      </c>
+      <c r="T56" s="5">
+        <f t="shared" si="11"/>
+        <v>0.62009760582805806</v>
+      </c>
+      <c r="U56">
+        <v>0.56554000000000004</v>
+      </c>
+      <c r="W56">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.18462000919475191</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="8"/>
+        <v>0.19528238497718997</v>
       </c>
     </row>
   </sheetData>
@@ -3525,694 +3998,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2892F4C0-2D59-4D53-B48A-5DBD1C92BD10}">
-  <dimension ref="C2:Y21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:P14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D2">
-        <v>60</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E9" si="0">(D2*PI())/180</f>
-        <v>1.0471975511965976</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F9" si="1">$B$1/SIN(E2)</f>
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1136</v>
-      </c>
-      <c r="J2">
-        <v>240</v>
-      </c>
-      <c r="K2">
-        <v>110</v>
-      </c>
-      <c r="L2">
-        <v>700</v>
-      </c>
-      <c r="M2">
-        <v>26</v>
-      </c>
-      <c r="N2">
-        <v>326</v>
-      </c>
-      <c r="O2">
-        <v>674</v>
-      </c>
-      <c r="P2">
-        <v>911</v>
-      </c>
-      <c r="Q2">
-        <v>6.6132999999999999E-3</v>
-      </c>
-      <c r="R2">
-        <v>5.4933999999999997E-2</v>
-      </c>
-      <c r="S2">
-        <v>0.61409999999999998</v>
-      </c>
-      <c r="T2" s="5">
-        <f>S2/(S2+R2+Q2)</f>
-        <v>0.90890617042353294</v>
-      </c>
-      <c r="U2">
-        <v>0.67564999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D3">
-        <v>59</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>1.0297442586766543</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1148</v>
-      </c>
-      <c r="J3">
-        <v>240</v>
-      </c>
-      <c r="K3">
-        <v>110</v>
-      </c>
-      <c r="L3">
-        <v>700</v>
-      </c>
-      <c r="M3">
-        <v>22</v>
-      </c>
-      <c r="N3">
-        <v>328</v>
-      </c>
-      <c r="O3">
-        <v>678</v>
-      </c>
-      <c r="P3">
-        <v>915</v>
-      </c>
-      <c r="Q3">
-        <v>7.2713999999999999E-3</v>
-      </c>
-      <c r="R3">
-        <v>6.7774000000000001E-2</v>
-      </c>
-      <c r="S3">
-        <v>0.60668999999999995</v>
-      </c>
-      <c r="T3" s="5">
-        <f t="shared" ref="T3:T9" si="2">S3/(S3+R3+Q3)</f>
-        <v>0.88992004815944714</v>
-      </c>
-      <c r="U3">
-        <v>0.68172999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D4">
-        <v>57</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0.99483767363676778</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1173</v>
-      </c>
-      <c r="J4">
-        <v>240</v>
-      </c>
-      <c r="K4">
-        <v>110</v>
-      </c>
-      <c r="L4">
-        <v>700</v>
-      </c>
-      <c r="M4">
-        <v>24</v>
-      </c>
-      <c r="N4">
-        <v>329</v>
-      </c>
-      <c r="O4">
-        <v>678</v>
-      </c>
-      <c r="P4">
-        <v>942</v>
-      </c>
-      <c r="Q4">
-        <v>1.7385999999999999E-2</v>
-      </c>
-      <c r="R4">
-        <v>9.2444999999999999E-2</v>
-      </c>
-      <c r="S4">
-        <v>0.59887000000000001</v>
-      </c>
-      <c r="T4" s="5">
-        <f t="shared" si="2"/>
-        <v>0.84502491177520556</v>
-      </c>
-      <c r="U4">
-        <v>0.7087</v>
-      </c>
-    </row>
-    <row r="5" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D5">
-        <v>56</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.97738438111682457</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1187</v>
-      </c>
-      <c r="J5">
-        <v>240</v>
-      </c>
-      <c r="K5">
-        <v>110</v>
-      </c>
-      <c r="L5">
-        <v>700</v>
-      </c>
-      <c r="M5">
-        <v>20</v>
-      </c>
-      <c r="N5">
-        <v>328</v>
-      </c>
-      <c r="O5">
-        <v>679</v>
-      </c>
-      <c r="P5">
-        <v>917</v>
-      </c>
-      <c r="Q5">
-        <v>1.7367E-2</v>
-      </c>
-      <c r="R5">
-        <v>9.7576999999999997E-2</v>
-      </c>
-      <c r="S5">
-        <v>0.60584000000000005</v>
-      </c>
-      <c r="T5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.84052920153610511</v>
-      </c>
-      <c r="U5">
-        <v>0.72077999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D6">
-        <v>55</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0.95993108859688125</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1201</v>
-      </c>
-      <c r="J6">
-        <v>240</v>
-      </c>
-      <c r="K6">
-        <v>110</v>
-      </c>
-      <c r="L6">
-        <v>700</v>
-      </c>
-      <c r="M6">
-        <v>11</v>
-      </c>
-      <c r="N6">
-        <v>324</v>
-      </c>
-      <c r="O6">
-        <v>678</v>
-      </c>
-      <c r="P6">
-        <v>918</v>
-      </c>
-      <c r="Q6">
-        <v>1.4932000000000001E-2</v>
-      </c>
-      <c r="R6">
-        <v>0.10001</v>
-      </c>
-      <c r="S6">
-        <v>0.62256</v>
-      </c>
-      <c r="T6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.84414686333054001</v>
-      </c>
-      <c r="U6">
-        <v>0.73750000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7">
-        <v>46</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.80285145591739149</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>53</v>
-      </c>
-      <c r="N7">
-        <v>351</v>
-      </c>
-      <c r="O7">
-        <v>690</v>
-      </c>
-      <c r="P7">
-        <v>910</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>5.0991000000000002E-2</v>
-      </c>
-      <c r="R7">
-        <v>0.16506000000000001</v>
-      </c>
-      <c r="S7">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="T7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.70527152953887251</v>
-      </c>
-      <c r="U7">
-        <v>0.73306000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>58</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>1.0122909661567112</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1160</v>
-      </c>
-      <c r="J8">
-        <v>240</v>
-      </c>
-      <c r="K8">
-        <v>110</v>
-      </c>
-      <c r="L8">
-        <v>700</v>
-      </c>
-      <c r="M8">
-        <v>20</v>
-      </c>
-      <c r="N8">
-        <v>327</v>
-      </c>
-      <c r="O8">
-        <v>677</v>
-      </c>
-      <c r="P8">
-        <v>934</v>
-      </c>
-      <c r="Q8">
-        <v>1.1044999999999999E-2</v>
-      </c>
-      <c r="R8">
-        <v>8.0716999999999997E-2</v>
-      </c>
-      <c r="S8">
-        <v>0.60253000000000001</v>
-      </c>
-      <c r="T8" s="5">
-        <f t="shared" si="2"/>
-        <v>0.8678337068553289</v>
-      </c>
-      <c r="U8">
-        <v>0.69428999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <v>40</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.69813170079773179</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1530</v>
-      </c>
-      <c r="J9">
-        <v>240</v>
-      </c>
-      <c r="K9">
-        <v>110</v>
-      </c>
-      <c r="L9">
-        <v>650</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>317</v>
-      </c>
-      <c r="O9">
-        <v>675</v>
-      </c>
-      <c r="P9">
-        <v>911</v>
-      </c>
-      <c r="Q9">
-        <v>0.02</v>
-      </c>
-      <c r="R9">
-        <v>0.1</v>
-      </c>
-      <c r="S9">
-        <v>0.46</v>
-      </c>
-      <c r="T9" s="5">
-        <f t="shared" si="2"/>
-        <v>0.79310344827586199</v>
-      </c>
-      <c r="U9">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D11">
-        <v>36</v>
-      </c>
-      <c r="I11">
-        <v>1674</v>
-      </c>
-      <c r="J11">
-        <v>240</v>
-      </c>
-      <c r="K11">
-        <v>110</v>
-      </c>
-      <c r="L11">
-        <v>700</v>
-      </c>
-      <c r="M11">
-        <v>2</v>
-      </c>
-      <c r="N11">
-        <v>328</v>
-      </c>
-      <c r="O11">
-        <v>680</v>
-      </c>
-      <c r="P11">
-        <v>900</v>
-      </c>
-      <c r="Q11">
-        <v>2.8035000000000001E-2</v>
-      </c>
-      <c r="R11">
-        <v>0.13142999999999999</v>
-      </c>
-      <c r="S11">
-        <v>0.36432999999999999</v>
-      </c>
-      <c r="T11" s="5">
-        <f>S11/(S11+R11+Q11)</f>
-        <v>0.69555837684590338</v>
-      </c>
-      <c r="U11">
-        <v>0.52378999999999998</v>
-      </c>
-      <c r="W11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <v>35</v>
-      </c>
-      <c r="I12">
-        <v>1716</v>
-      </c>
-      <c r="J12">
-        <v>240</v>
-      </c>
-      <c r="K12">
-        <v>110</v>
-      </c>
-      <c r="L12">
-        <v>700</v>
-      </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
-      <c r="N12">
-        <v>328</v>
-      </c>
-      <c r="O12">
-        <v>680</v>
-      </c>
-      <c r="P12">
-        <v>900</v>
-      </c>
-      <c r="Q12">
-        <v>2.7252999999999999E-2</v>
-      </c>
-      <c r="R12">
-        <v>0.12107999999999999</v>
-      </c>
-      <c r="S12">
-        <v>0.37545000000000001</v>
-      </c>
-      <c r="T12" s="5">
-        <f>S12/(S12+R12+Q12)</f>
-        <v>0.71680447819039561</v>
-      </c>
-      <c r="U12">
-        <v>0.52378000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D13">
-        <v>34</v>
-      </c>
-      <c r="I13">
-        <v>1760</v>
-      </c>
-      <c r="J13">
-        <v>240</v>
-      </c>
-      <c r="K13">
-        <v>110</v>
-      </c>
-      <c r="L13">
-        <v>700</v>
-      </c>
-      <c r="M13">
-        <v>7</v>
-      </c>
-      <c r="N13">
-        <v>328</v>
-      </c>
-      <c r="O13">
-        <v>680</v>
-      </c>
-      <c r="P13">
-        <v>904</v>
-      </c>
-      <c r="Q13">
-        <v>4.8923000000000001E-2</v>
-      </c>
-      <c r="R13">
-        <v>8.9857999999999993E-2</v>
-      </c>
-      <c r="S13">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="T13" s="5">
-        <f>S13/(S13+R13+Q13)</f>
-        <v>0.70268498503580912</v>
-      </c>
-      <c r="U13">
-        <v>0.46677999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D14">
-        <v>33</v>
-      </c>
-      <c r="I14">
-        <v>1807</v>
-      </c>
-      <c r="J14">
-        <v>240</v>
-      </c>
-      <c r="K14">
-        <v>110</v>
-      </c>
-      <c r="L14">
-        <v>700</v>
-      </c>
-      <c r="M14">
-        <v>4</v>
-      </c>
-      <c r="N14">
-        <v>328</v>
-      </c>
-      <c r="O14">
-        <v>680</v>
-      </c>
-      <c r="P14">
-        <v>900</v>
-      </c>
-      <c r="Q14">
-        <v>7.0735000000000006E-2</v>
-      </c>
-      <c r="R14">
-        <v>0.10799</v>
-      </c>
-      <c r="S14">
-        <v>0.34245999999999999</v>
-      </c>
-      <c r="T14" s="5">
-        <f>S14/(S14+R14+Q14)</f>
-        <v>0.65707953989466306</v>
-      </c>
-      <c r="U14">
-        <v>0.52117999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D15">
-        <v>32</v>
-      </c>
-      <c r="I15">
-        <v>1857</v>
-      </c>
-      <c r="N15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M17">
-        <v>2</v>
-      </c>
-      <c r="N17">
-        <v>740</v>
-      </c>
-      <c r="O17">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="18" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M18">
-        <v>2</v>
-      </c>
-      <c r="N18">
-        <v>740</v>
-      </c>
-      <c r="O18">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="19" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M19">
-        <v>4</v>
-      </c>
-      <c r="N19">
-        <v>750</v>
-      </c>
-      <c r="O19">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="20" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M20">
-        <v>4</v>
-      </c>
-      <c r="N20">
-        <v>770</v>
-      </c>
-      <c r="O20">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="21" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M21">
-        <v>15</v>
-      </c>
-      <c r="N21">
-        <v>732</v>
-      </c>
-      <c r="O21">
-        <v>1857</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B001B3A-0AFF-4E66-9BA2-DF07064EBDC6}">
   <dimension ref="A1:Z56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V56" sqref="V56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4320,6 +4111,47 @@
       <c r="L2">
         <v>770</v>
       </c>
+      <c r="M2">
+        <v>92</v>
+      </c>
+      <c r="N2">
+        <v>492</v>
+      </c>
+      <c r="O2">
+        <v>765</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>1.1379E-2</v>
+      </c>
+      <c r="R2" s="8">
+        <v>0.10901</v>
+      </c>
+      <c r="S2" s="8">
+        <v>0.57933999999999997</v>
+      </c>
+      <c r="T2" s="7">
+        <f t="shared" ref="T2:T25" si="2">S2/(S2+R2+Q2)</f>
+        <v>0.82794910601104132</v>
+      </c>
+      <c r="U2" s="8">
+        <v>0.69972999999999996</v>
+      </c>
+      <c r="V2" s="10">
+        <v>5.747E-2</v>
+      </c>
+      <c r="W2" s="10">
+        <v>2.0839999999999999E-3</v>
+      </c>
+      <c r="X2" s="10">
+        <v>4.6625E-2</v>
+      </c>
+      <c r="Y2" s="9">
+        <f t="shared" ref="Y2:Y4" si="3">X2/(X2+W2+V2)</f>
+        <v>0.43911696286459662</v>
+      </c>
+      <c r="Z2" s="10">
+        <v>0.10618</v>
+      </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D3">
@@ -4345,6 +4177,47 @@
       <c r="L3">
         <v>700</v>
       </c>
+      <c r="M3">
+        <v>91</v>
+      </c>
+      <c r="N3">
+        <v>491</v>
+      </c>
+      <c r="O3">
+        <v>766</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>1.0321E-2</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0.11695</v>
+      </c>
+      <c r="S3" s="8">
+        <v>0.55366000000000004</v>
+      </c>
+      <c r="T3" s="7">
+        <f t="shared" si="2"/>
+        <v>0.8130926628395535</v>
+      </c>
+      <c r="U3" s="8">
+        <v>0.68093000000000004</v>
+      </c>
+      <c r="V3" s="10">
+        <v>6.1594999999999997E-2</v>
+      </c>
+      <c r="W3" s="10">
+        <v>3.7678999999999998E-3</v>
+      </c>
+      <c r="X3" s="10">
+        <v>6.4104999999999995E-2</v>
+      </c>
+      <c r="Y3" s="9">
+        <f t="shared" si="3"/>
+        <v>0.49514203906914378</v>
+      </c>
+      <c r="Z3" s="10">
+        <v>0.12248000000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D4">
@@ -4370,6 +4243,47 @@
       <c r="L4">
         <v>700</v>
       </c>
+      <c r="M4">
+        <v>89</v>
+      </c>
+      <c r="N4">
+        <v>490</v>
+      </c>
+      <c r="O4">
+        <v>765</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>1.0128E-2</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0.10939</v>
+      </c>
+      <c r="S4" s="8">
+        <v>0.52800999999999998</v>
+      </c>
+      <c r="T4" s="7">
+        <f t="shared" si="2"/>
+        <v>0.8154241978725244</v>
+      </c>
+      <c r="U4" s="8">
+        <v>0.64753000000000005</v>
+      </c>
+      <c r="V4" s="10">
+        <v>6.1051000000000001E-2</v>
+      </c>
+      <c r="W4" s="10">
+        <v>6.7983000000000002E-3</v>
+      </c>
+      <c r="X4" s="10">
+        <v>0.10972999999999999</v>
+      </c>
+      <c r="Y4" s="9">
+        <f t="shared" si="3"/>
+        <v>0.61792112031075697</v>
+      </c>
+      <c r="Z4" s="10">
+        <v>0.17757999999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D5">
@@ -4395,6 +4309,47 @@
       <c r="L5">
         <v>700</v>
       </c>
+      <c r="M5">
+        <v>94</v>
+      </c>
+      <c r="N5">
+        <v>495</v>
+      </c>
+      <c r="O5">
+        <v>771</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>1.0917E-2</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0.10706</v>
+      </c>
+      <c r="S5" s="8">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="T5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.82311683911139366</v>
+      </c>
+      <c r="U5" s="8">
+        <v>0.66698000000000002</v>
+      </c>
+      <c r="V5" s="10">
+        <v>6.6975000000000007E-2</v>
+      </c>
+      <c r="W5" s="10">
+        <v>1.3566E-2</v>
+      </c>
+      <c r="X5" s="10">
+        <v>0.18353</v>
+      </c>
+      <c r="Y5" s="9">
+        <f>X5/(X5+W5+V5)</f>
+        <v>0.69500248039353052</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>0.26545999999999997</v>
+      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D6">
@@ -4420,6 +4375,47 @@
       <c r="L6">
         <v>700</v>
       </c>
+      <c r="M6">
+        <v>94</v>
+      </c>
+      <c r="N6">
+        <v>497</v>
+      </c>
+      <c r="O6">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>6.5617999999999996E-3</v>
+      </c>
+      <c r="R6" s="8">
+        <v>0.11574</v>
+      </c>
+      <c r="S6" s="8">
+        <v>0.58043</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="2"/>
+        <v>0.82596233726721924</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0.70272999999999997</v>
+      </c>
+      <c r="V6" s="10">
+        <v>6.3753000000000004E-2</v>
+      </c>
+      <c r="W6" s="10">
+        <v>1.5723999999999998E-2</v>
+      </c>
+      <c r="X6" s="10">
+        <v>0.21440000000000001</v>
+      </c>
+      <c r="Y6" s="9">
+        <f t="shared" ref="Y6:Y56" si="4">X6/(X6+W6+V6)</f>
+        <v>0.72955692347478707</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>0.29387000000000002</v>
+      </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D7">
@@ -4445,6 +4441,47 @@
       <c r="L7">
         <v>700</v>
       </c>
+      <c r="M7">
+        <v>99</v>
+      </c>
+      <c r="N7">
+        <v>500</v>
+      </c>
+      <c r="O7">
+        <v>776</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>1.6708000000000001E-2</v>
+      </c>
+      <c r="R7" s="8">
+        <v>9.3289999999999998E-2</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0.63688</v>
+      </c>
+      <c r="T7" s="7">
+        <f t="shared" si="2"/>
+        <v>0.85272293466938387</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0.74687999999999999</v>
+      </c>
+      <c r="V7" s="10">
+        <v>7.1974999999999997E-2</v>
+      </c>
+      <c r="W7" s="10">
+        <v>1.8574E-2</v>
+      </c>
+      <c r="X7" s="10">
+        <v>0.22425</v>
+      </c>
+      <c r="Y7" s="9">
+        <f t="shared" si="4"/>
+        <v>0.71235931499147076</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>0.31479000000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D8">
@@ -4470,6 +4507,47 @@
       <c r="L8">
         <v>700</v>
       </c>
+      <c r="M8">
+        <v>96</v>
+      </c>
+      <c r="N8">
+        <v>497</v>
+      </c>
+      <c r="O8">
+        <v>773</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>2.2391000000000001E-2</v>
+      </c>
+      <c r="R8" s="8">
+        <v>8.0894999999999995E-2</v>
+      </c>
+      <c r="S8" s="8">
+        <v>0.68742000000000003</v>
+      </c>
+      <c r="T8" s="7">
+        <f t="shared" si="2"/>
+        <v>0.86937496364008859</v>
+      </c>
+      <c r="U8" s="8">
+        <v>0.79069999999999996</v>
+      </c>
+      <c r="V8" s="10">
+        <v>7.5174000000000005E-2</v>
+      </c>
+      <c r="W8" s="10">
+        <v>2.0077999999999999E-2</v>
+      </c>
+      <c r="X8" s="10">
+        <v>0.21698999999999999</v>
+      </c>
+      <c r="Y8" s="9">
+        <f t="shared" si="4"/>
+        <v>0.69494174390376684</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>0.31224000000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D9">
@@ -4495,6 +4573,47 @@
       <c r="L9">
         <v>700</v>
       </c>
+      <c r="M9">
+        <v>101</v>
+      </c>
+      <c r="N9">
+        <v>503</v>
+      </c>
+      <c r="O9">
+        <v>779</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>2.7965E-2</v>
+      </c>
+      <c r="R9" s="8">
+        <v>6.7145999999999997E-2</v>
+      </c>
+      <c r="S9" s="8">
+        <v>0.73124</v>
+      </c>
+      <c r="T9" s="7">
+        <f t="shared" si="2"/>
+        <v>0.88490242040004785</v>
+      </c>
+      <c r="U9" s="8">
+        <v>0.82635000000000003</v>
+      </c>
+      <c r="V9" s="10">
+        <v>7.7365000000000003E-2</v>
+      </c>
+      <c r="W9" s="10">
+        <v>2.1949E-2</v>
+      </c>
+      <c r="X9" s="10">
+        <v>0.20976</v>
+      </c>
+      <c r="Y9" s="9">
+        <f t="shared" si="4"/>
+        <v>0.67867242149129337</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>0.30907000000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D10">
@@ -4520,6 +4639,47 @@
       <c r="L10">
         <v>700</v>
       </c>
+      <c r="M10">
+        <v>103</v>
+      </c>
+      <c r="N10">
+        <v>502</v>
+      </c>
+      <c r="O10">
+        <v>778</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>6.5378000000000006E-2</v>
+      </c>
+      <c r="R10" s="8">
+        <v>2.8967E-2</v>
+      </c>
+      <c r="S10" s="8">
+        <v>0.73390999999999995</v>
+      </c>
+      <c r="T10" s="7">
+        <f t="shared" si="2"/>
+        <v>0.88609184369548022</v>
+      </c>
+      <c r="U10" s="8">
+        <v>0.82826</v>
+      </c>
+      <c r="V10" s="10">
+        <v>9.1148999999999994E-2</v>
+      </c>
+      <c r="W10" s="10">
+        <v>2.5822999999999999E-2</v>
+      </c>
+      <c r="X10" s="10">
+        <v>0.23308999999999999</v>
+      </c>
+      <c r="Y10" s="9">
+        <f t="shared" si="4"/>
+        <v>0.66585347738400624</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>0.35005999999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D11">
@@ -4545,6 +4705,47 @@
       <c r="L11">
         <v>700</v>
       </c>
+      <c r="M11">
+        <v>99</v>
+      </c>
+      <c r="N11">
+        <v>502</v>
+      </c>
+      <c r="O11">
+        <v>779</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>4.8173000000000001E-2</v>
+      </c>
+      <c r="R11" s="8">
+        <v>3.8165999999999999E-2</v>
+      </c>
+      <c r="S11" s="8">
+        <v>0.74309000000000003</v>
+      </c>
+      <c r="T11" s="7">
+        <f t="shared" si="2"/>
+        <v>0.89590549643188255</v>
+      </c>
+      <c r="U11" s="8">
+        <v>0.82942000000000005</v>
+      </c>
+      <c r="V11" s="10">
+        <v>8.5599999999999996E-2</v>
+      </c>
+      <c r="W11" s="10">
+        <v>2.8892999999999999E-2</v>
+      </c>
+      <c r="X11" s="10">
+        <v>0.23668</v>
+      </c>
+      <c r="Y11" s="9">
+        <f t="shared" si="4"/>
+        <v>0.67396980975188869</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>0.35116999999999998</v>
+      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D12">
@@ -4570,6 +4771,47 @@
       <c r="L12">
         <v>700</v>
       </c>
+      <c r="M12">
+        <v>108</v>
+      </c>
+      <c r="N12">
+        <v>515</v>
+      </c>
+      <c r="O12">
+        <v>793</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>3.7634000000000001E-2</v>
+      </c>
+      <c r="R12" s="8">
+        <v>4.3464000000000003E-2</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0.73773</v>
+      </c>
+      <c r="T12" s="7">
+        <f t="shared" si="2"/>
+        <v>0.90095844304298356</v>
+      </c>
+      <c r="U12" s="8">
+        <v>0.81882999999999995</v>
+      </c>
+      <c r="V12" s="10">
+        <v>7.7710000000000001E-2</v>
+      </c>
+      <c r="W12" s="10">
+        <v>2.9739999999999999E-2</v>
+      </c>
+      <c r="X12" s="10">
+        <v>0.24895999999999999</v>
+      </c>
+      <c r="Y12" s="9">
+        <f t="shared" ref="Y12" si="5">X12/(X12+W12+V12)</f>
+        <v>0.69852136584270919</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>0.35641</v>
+      </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D13">
@@ -4595,6 +4837,47 @@
       <c r="L13">
         <v>700</v>
       </c>
+      <c r="M13">
+        <v>91</v>
+      </c>
+      <c r="N13">
+        <v>503</v>
+      </c>
+      <c r="O13">
+        <v>782</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>2.3230000000000001E-2</v>
+      </c>
+      <c r="R13" s="8">
+        <v>5.5336999999999997E-2</v>
+      </c>
+      <c r="S13" s="8">
+        <v>0.73090999999999995</v>
+      </c>
+      <c r="T13" s="7">
+        <f t="shared" si="2"/>
+        <v>0.9029410347668928</v>
+      </c>
+      <c r="U13" s="8">
+        <v>0.80947999999999998</v>
+      </c>
+      <c r="V13" s="10">
+        <v>7.0333999999999994E-2</v>
+      </c>
+      <c r="W13" s="10">
+        <v>3.2849000000000003E-2</v>
+      </c>
+      <c r="X13" s="10">
+        <v>0.25707999999999998</v>
+      </c>
+      <c r="Y13" s="9">
+        <f t="shared" si="4"/>
+        <v>0.71358979412262702</v>
+      </c>
+      <c r="Z13" s="10">
+        <v>0.36026999999999998</v>
+      </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D14">
@@ -4620,6 +4903,47 @@
       <c r="L14">
         <v>700</v>
       </c>
+      <c r="M14">
+        <v>105</v>
+      </c>
+      <c r="N14">
+        <v>522</v>
+      </c>
+      <c r="O14">
+        <v>801</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>1.9184E-2</v>
+      </c>
+      <c r="R14" s="8">
+        <v>6.1006999999999999E-2</v>
+      </c>
+      <c r="S14" s="8">
+        <v>0.72206999999999999</v>
+      </c>
+      <c r="T14" s="7">
+        <f t="shared" si="2"/>
+        <v>0.90004375134775338</v>
+      </c>
+      <c r="U14" s="8">
+        <v>0.79832000000000003</v>
+      </c>
+      <c r="V14" s="10">
+        <v>5.7966999999999998E-2</v>
+      </c>
+      <c r="W14" s="10">
+        <v>2.8802000000000001E-2</v>
+      </c>
+      <c r="X14" s="10">
+        <v>0.26878000000000002</v>
+      </c>
+      <c r="Y14" s="9">
+        <f t="shared" si="4"/>
+        <v>0.75595768796987195</v>
+      </c>
+      <c r="Z14" s="10">
+        <v>0.35554999999999998</v>
+      </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D15">
@@ -4645,6 +4969,47 @@
       <c r="L15">
         <v>700</v>
       </c>
+      <c r="M15">
+        <v>99</v>
+      </c>
+      <c r="N15">
+        <v>522</v>
+      </c>
+      <c r="O15">
+        <v>802</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>6.1456000000000002E-3</v>
+      </c>
+      <c r="R15" s="8">
+        <v>7.5151999999999997E-2</v>
+      </c>
+      <c r="S15" s="8">
+        <v>0.71030000000000004</v>
+      </c>
+      <c r="T15" s="7">
+        <f t="shared" si="2"/>
+        <v>0.89729933491460812</v>
+      </c>
+      <c r="U15" s="8">
+        <v>0.79159999999999997</v>
+      </c>
+      <c r="V15" s="10">
+        <v>5.0341999999999998E-2</v>
+      </c>
+      <c r="W15" s="10">
+        <v>3.0165999999999998E-2</v>
+      </c>
+      <c r="X15" s="10">
+        <v>0.28444999999999998</v>
+      </c>
+      <c r="Y15" s="9">
+        <f t="shared" si="4"/>
+        <v>0.77940475342368154</v>
+      </c>
+      <c r="Z15" s="10">
+        <v>0.36496000000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D16">
@@ -4670,6 +5035,47 @@
       <c r="L16">
         <v>700</v>
       </c>
+      <c r="M16">
+        <v>103</v>
+      </c>
+      <c r="N16">
+        <v>533</v>
+      </c>
+      <c r="O16">
+        <v>813</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>1.1291999999999999E-3</v>
+      </c>
+      <c r="R16" s="8">
+        <v>9.0077000000000004E-2</v>
+      </c>
+      <c r="S16" s="8">
+        <v>0.69230999999999998</v>
+      </c>
+      <c r="T16" s="7">
+        <f>S16/(S16+R16+Q16)</f>
+        <v>0.88359372786421009</v>
+      </c>
+      <c r="U16" s="8">
+        <v>0.78351999999999999</v>
+      </c>
+      <c r="V16" s="10">
+        <v>4.0427999999999999E-2</v>
+      </c>
+      <c r="W16" s="10">
+        <v>2.8613E-2</v>
+      </c>
+      <c r="X16" s="10">
+        <v>0.29897000000000001</v>
+      </c>
+      <c r="Y16" s="9">
+        <f t="shared" si="4"/>
+        <v>0.81239419473874419</v>
+      </c>
+      <c r="Z16" s="10">
+        <v>0.36801</v>
+      </c>
     </row>
     <row r="17" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D17">
@@ -4695,6 +5101,47 @@
       <c r="L17">
         <v>700</v>
       </c>
+      <c r="M17">
+        <v>94</v>
+      </c>
+      <c r="N17">
+        <v>530</v>
+      </c>
+      <c r="O17">
+        <v>812</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>1.9773E-3</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0.11222</v>
+      </c>
+      <c r="S17" s="8">
+        <v>0.67086000000000001</v>
+      </c>
+      <c r="T17" s="7">
+        <f t="shared" si="2"/>
+        <v>0.85453635040397691</v>
+      </c>
+      <c r="U17" s="8">
+        <v>0.78474999999999995</v>
+      </c>
+      <c r="V17" s="10">
+        <v>4.0203999999999997E-2</v>
+      </c>
+      <c r="W17" s="10">
+        <v>3.8144999999999998E-2</v>
+      </c>
+      <c r="X17" s="10">
+        <v>0.31242999999999999</v>
+      </c>
+      <c r="Y17" s="9">
+        <f t="shared" si="4"/>
+        <v>0.79950560291110828</v>
+      </c>
+      <c r="Z17" s="10">
+        <v>0.39078000000000002</v>
+      </c>
     </row>
     <row r="18" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D18">
@@ -4720,6 +5167,47 @@
       <c r="L18">
         <v>700</v>
       </c>
+      <c r="M18">
+        <v>114</v>
+      </c>
+      <c r="N18">
+        <v>546</v>
+      </c>
+      <c r="O18">
+        <v>829</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>1.2467000000000001E-2</v>
+      </c>
+      <c r="R18" s="8">
+        <v>4.5835000000000001E-2</v>
+      </c>
+      <c r="S18" s="8">
+        <v>0.70191000000000003</v>
+      </c>
+      <c r="T18" s="7">
+        <f t="shared" si="2"/>
+        <v>0.92330823507126969</v>
+      </c>
+      <c r="U18" s="8">
+        <v>0.76021000000000005</v>
+      </c>
+      <c r="V18" s="10">
+        <v>5.7417999999999997E-2</v>
+      </c>
+      <c r="W18" s="10">
+        <v>1.7537000000000001E-2</v>
+      </c>
+      <c r="X18" s="10">
+        <v>0.23222000000000001</v>
+      </c>
+      <c r="Y18" s="9">
+        <f t="shared" si="4"/>
+        <v>0.75598600146496309</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>0.30718000000000001</v>
+      </c>
     </row>
     <row r="19" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D19">
@@ -4745,6 +5233,47 @@
       <c r="L19">
         <v>700</v>
       </c>
+      <c r="M19">
+        <v>115</v>
+      </c>
+      <c r="N19">
+        <v>553</v>
+      </c>
+      <c r="O19">
+        <v>836</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>1.0368E-2</v>
+      </c>
+      <c r="R19" s="8">
+        <v>4.6316000000000003E-2</v>
+      </c>
+      <c r="S19" s="8">
+        <v>0.69013999999999998</v>
+      </c>
+      <c r="T19" s="7">
+        <f t="shared" si="2"/>
+        <v>0.92409992180219158</v>
+      </c>
+      <c r="U19" s="8">
+        <v>0.74682000000000004</v>
+      </c>
+      <c r="V19" s="10">
+        <v>5.3373999999999998E-2</v>
+      </c>
+      <c r="W19" s="10">
+        <v>1.7696E-2</v>
+      </c>
+      <c r="X19" s="10">
+        <v>0.24526000000000001</v>
+      </c>
+      <c r="Y19" s="9">
+        <f t="shared" si="4"/>
+        <v>0.77532956090159011</v>
+      </c>
+      <c r="Z19" s="10">
+        <v>0.31633</v>
+      </c>
     </row>
     <row r="20" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D20">
@@ -4770,6 +5299,47 @@
       <c r="L20">
         <v>700</v>
       </c>
+      <c r="M20">
+        <v>112</v>
+      </c>
+      <c r="N20">
+        <v>557</v>
+      </c>
+      <c r="O20">
+        <v>840</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>8.8284000000000001E-3</v>
+      </c>
+      <c r="R20" s="8">
+        <v>4.7218000000000003E-2</v>
+      </c>
+      <c r="S20" s="8">
+        <v>0.67545999999999995</v>
+      </c>
+      <c r="T20" s="7">
+        <f t="shared" si="2"/>
+        <v>0.92338221511117335</v>
+      </c>
+      <c r="U20" s="8">
+        <v>0.73150999999999999</v>
+      </c>
+      <c r="V20" s="10">
+        <v>4.8786000000000003E-2</v>
+      </c>
+      <c r="W20" s="10">
+        <v>1.7722999999999999E-2</v>
+      </c>
+      <c r="X20" s="10">
+        <v>0.25791999999999998</v>
+      </c>
+      <c r="Y20" s="9">
+        <f t="shared" si="4"/>
+        <v>0.79499674813287347</v>
+      </c>
+      <c r="Z20" s="10">
+        <v>0.32443</v>
+      </c>
     </row>
     <row r="21" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D21">
@@ -4795,6 +5365,47 @@
       <c r="L21">
         <v>700</v>
       </c>
+      <c r="M21">
+        <v>110</v>
+      </c>
+      <c r="N21">
+        <v>562</v>
+      </c>
+      <c r="O21">
+        <v>846</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>5.2783999999999999E-3</v>
+      </c>
+      <c r="R21" s="8">
+        <v>5.0661999999999999E-2</v>
+      </c>
+      <c r="S21" s="8">
+        <v>0.66513</v>
+      </c>
+      <c r="T21" s="7">
+        <f t="shared" si="2"/>
+        <v>0.92242033510181531</v>
+      </c>
+      <c r="U21" s="8">
+        <v>0.72106999999999999</v>
+      </c>
+      <c r="V21" s="10">
+        <v>4.7111E-2</v>
+      </c>
+      <c r="W21" s="10">
+        <v>1.9392E-2</v>
+      </c>
+      <c r="X21" s="10">
+        <v>0.26612000000000002</v>
+      </c>
+      <c r="Y21" s="9">
+        <f t="shared" si="4"/>
+        <v>0.80006493838369563</v>
+      </c>
+      <c r="Z21" s="10">
+        <v>0.33262000000000003</v>
+      </c>
     </row>
     <row r="22" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D22">
@@ -4839,7 +5450,7 @@
         <v>0.65505000000000002</v>
       </c>
       <c r="T22" s="7">
-        <f>S22/(S22+R22+Q22)</f>
+        <f t="shared" si="2"/>
         <v>0.90997593679386746</v>
       </c>
       <c r="U22" s="8">
@@ -4855,7 +5466,7 @@
         <v>0.27332000000000001</v>
       </c>
       <c r="Y22" s="9">
-        <f>X22/(X22+W22+V22)</f>
+        <f t="shared" si="4"/>
         <v>0.91935557654479449</v>
       </c>
       <c r="Z22" s="10">
@@ -4886,6 +5497,47 @@
       <c r="L23">
         <v>700</v>
       </c>
+      <c r="M23">
+        <v>110</v>
+      </c>
+      <c r="N23">
+        <v>579</v>
+      </c>
+      <c r="O23">
+        <v>866</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>3.7586E-3</v>
+      </c>
+      <c r="R23" s="8">
+        <v>5.7324E-2</v>
+      </c>
+      <c r="S23" s="8">
+        <v>0.64637999999999995</v>
+      </c>
+      <c r="T23" s="7">
+        <f t="shared" si="2"/>
+        <v>0.91365960546889691</v>
+      </c>
+      <c r="U23" s="8">
+        <v>0.70745999999999998</v>
+      </c>
+      <c r="V23" s="10">
+        <v>4.2028999999999997E-2</v>
+      </c>
+      <c r="W23" s="10">
+        <v>2.8275999999999999E-2</v>
+      </c>
+      <c r="X23" s="10">
+        <v>0.27496999999999999</v>
+      </c>
+      <c r="Y23" s="9">
+        <f t="shared" si="4"/>
+        <v>0.79637969734269787</v>
+      </c>
+      <c r="Z23" s="10">
+        <v>0.34527000000000002</v>
+      </c>
     </row>
     <row r="24" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D24">
@@ -4911,6 +5563,47 @@
       <c r="L24">
         <v>700</v>
       </c>
+      <c r="M24">
+        <v>110</v>
+      </c>
+      <c r="N24">
+        <v>586</v>
+      </c>
+      <c r="O24">
+        <v>876</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>9.6831999999999994E-3</v>
+      </c>
+      <c r="R24" s="8">
+        <v>5.9020999999999997E-2</v>
+      </c>
+      <c r="S24" s="8">
+        <v>0.62495999999999996</v>
+      </c>
+      <c r="T24" s="7">
+        <f t="shared" si="2"/>
+        <v>0.90095466942073699</v>
+      </c>
+      <c r="U24" s="8">
+        <v>0.69366000000000005</v>
+      </c>
+      <c r="V24" s="10">
+        <v>4.5865999999999997E-2</v>
+      </c>
+      <c r="W24" s="10">
+        <v>3.8997999999999998E-2</v>
+      </c>
+      <c r="X24" s="10">
+        <v>0.27201999999999998</v>
+      </c>
+      <c r="Y24" s="9">
+        <f t="shared" si="4"/>
+        <v>0.76220844868360593</v>
+      </c>
+      <c r="Z24" s="10">
+        <v>0.35687999999999998</v>
+      </c>
     </row>
     <row r="25" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D25">
@@ -4936,6 +5629,47 @@
       <c r="L25">
         <v>700</v>
       </c>
+      <c r="M25">
+        <v>112</v>
+      </c>
+      <c r="N25">
+        <v>597</v>
+      </c>
+      <c r="O25">
+        <v>885</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>1.6458E-2</v>
+      </c>
+      <c r="R25" s="8">
+        <v>5.6626999999999997E-2</v>
+      </c>
+      <c r="S25" s="8">
+        <v>0.60489000000000004</v>
+      </c>
+      <c r="T25" s="7">
+        <f t="shared" si="2"/>
+        <v>0.89220103986135191</v>
+      </c>
+      <c r="U25" s="8">
+        <v>0.67796999999999996</v>
+      </c>
+      <c r="V25" s="10">
+        <v>2.8095999999999999E-2</v>
+      </c>
+      <c r="W25" s="10">
+        <v>2.9801999999999999E-2</v>
+      </c>
+      <c r="X25" s="10">
+        <v>0.27906999999999998</v>
+      </c>
+      <c r="Y25" s="9">
+        <f t="shared" si="4"/>
+        <v>0.82817953040051284</v>
+      </c>
+      <c r="Z25" s="10">
+        <v>0.33696999999999999</v>
+      </c>
     </row>
     <row r="26" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D26">
@@ -4996,7 +5730,7 @@
         <v>0.26456000000000002</v>
       </c>
       <c r="Y26" s="9">
-        <f>X26/(X26+W26+V26)</f>
+        <f t="shared" si="4"/>
         <v>0.7835378856086811</v>
       </c>
       <c r="Z26" s="10">
@@ -5027,6 +5761,47 @@
       <c r="L27">
         <v>770</v>
       </c>
+      <c r="M27">
+        <v>101</v>
+      </c>
+      <c r="N27">
+        <v>594</v>
+      </c>
+      <c r="O27">
+        <v>893</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>1.6534E-2</v>
+      </c>
+      <c r="R27" s="8">
+        <v>7.3191000000000006E-2</v>
+      </c>
+      <c r="S27" s="8">
+        <v>0.60975999999999997</v>
+      </c>
+      <c r="T27" s="7">
+        <f t="shared" ref="T27:T56" si="6">S27/(S27+R27+Q27)</f>
+        <v>0.87172705633430303</v>
+      </c>
+      <c r="U27" s="8">
+        <v>0.69948999999999995</v>
+      </c>
+      <c r="V27" s="10">
+        <v>6.5563999999999997E-2</v>
+      </c>
+      <c r="W27" s="10">
+        <v>4.8994999999999997E-2</v>
+      </c>
+      <c r="X27" s="10">
+        <v>0.22739999999999999</v>
+      </c>
+      <c r="Y27" s="9">
+        <f t="shared" si="4"/>
+        <v>0.66499200196514785</v>
+      </c>
+      <c r="Z27" s="10">
+        <v>0.34195999999999999</v>
+      </c>
     </row>
     <row r="28" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D28">
@@ -5052,6 +5827,47 @@
       <c r="L28">
         <v>700</v>
       </c>
+      <c r="M28">
+        <v>60</v>
+      </c>
+      <c r="N28">
+        <v>587</v>
+      </c>
+      <c r="O28">
+        <v>870</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>6.8076999999999999E-2</v>
+      </c>
+      <c r="R28" s="8">
+        <v>0.11562</v>
+      </c>
+      <c r="S28" s="8">
+        <v>0.54244000000000003</v>
+      </c>
+      <c r="T28" s="7">
+        <f t="shared" si="6"/>
+        <v>0.74702156755543381</v>
+      </c>
+      <c r="U28" s="8">
+        <v>0.72614000000000001</v>
+      </c>
+      <c r="V28" s="10">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="W28" s="10">
+        <v>9.0577999999999995E-3</v>
+      </c>
+      <c r="X28" s="10">
+        <v>0.28366000000000002</v>
+      </c>
+      <c r="Y28" s="9">
+        <f t="shared" si="4"/>
+        <v>0.89084215769344555</v>
+      </c>
+      <c r="Z28" s="10">
+        <v>0.31841999999999998</v>
+      </c>
     </row>
     <row r="29" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D29">
@@ -5077,6 +5893,47 @@
       <c r="L29">
         <v>700</v>
       </c>
+      <c r="M29">
+        <v>57</v>
+      </c>
+      <c r="N29">
+        <v>593</v>
+      </c>
+      <c r="O29">
+        <v>877</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>6.7216999999999999E-2</v>
+      </c>
+      <c r="R29" s="8">
+        <v>0.12068</v>
+      </c>
+      <c r="S29" s="8">
+        <v>0.54840999999999995</v>
+      </c>
+      <c r="T29" s="7">
+        <f t="shared" si="6"/>
+        <v>0.74481160711496697</v>
+      </c>
+      <c r="U29" s="8">
+        <v>0.73631000000000002</v>
+      </c>
+      <c r="V29" s="10">
+        <v>2.7622000000000001E-2</v>
+      </c>
+      <c r="W29" s="10">
+        <v>1.4885000000000001E-2</v>
+      </c>
+      <c r="X29" s="10">
+        <v>0.30535000000000001</v>
+      </c>
+      <c r="Y29" s="9">
+        <f t="shared" si="4"/>
+        <v>0.87780323523746839</v>
+      </c>
+      <c r="Z29" s="10">
+        <v>0.34786</v>
+      </c>
     </row>
     <row r="30" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D30">
@@ -5102,6 +5959,47 @@
       <c r="L30">
         <v>700</v>
       </c>
+      <c r="M30">
+        <v>48</v>
+      </c>
+      <c r="N30">
+        <v>596</v>
+      </c>
+      <c r="O30">
+        <v>881</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>7.7012999999999998E-2</v>
+      </c>
+      <c r="R30" s="8">
+        <v>0.13292999999999999</v>
+      </c>
+      <c r="S30" s="8">
+        <v>0.54488999999999999</v>
+      </c>
+      <c r="T30" s="7">
+        <f t="shared" si="6"/>
+        <v>0.72186828079853427</v>
+      </c>
+      <c r="U30" s="8">
+        <v>0.75483999999999996</v>
+      </c>
+      <c r="V30" s="10">
+        <v>2.9291999999999999E-2</v>
+      </c>
+      <c r="W30" s="10">
+        <v>2.4225E-2</v>
+      </c>
+      <c r="X30" s="10">
+        <v>0.33224999999999999</v>
+      </c>
+      <c r="Y30" s="9">
+        <f t="shared" si="4"/>
+        <v>0.8612711818273725</v>
+      </c>
+      <c r="Z30" s="10">
+        <v>0.38577</v>
+      </c>
     </row>
     <row r="31" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D31">
@@ -5127,6 +6025,47 @@
       <c r="L31">
         <v>700</v>
       </c>
+      <c r="M31">
+        <v>69</v>
+      </c>
+      <c r="N31">
+        <v>621</v>
+      </c>
+      <c r="O31">
+        <v>909</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>4.8797E-2</v>
+      </c>
+      <c r="R31" s="8">
+        <v>0.11379</v>
+      </c>
+      <c r="S31" s="8">
+        <v>0.56523999999999996</v>
+      </c>
+      <c r="T31" s="7">
+        <f t="shared" si="6"/>
+        <v>0.77661312372308244</v>
+      </c>
+      <c r="U31" s="8">
+        <v>0.72784000000000004</v>
+      </c>
+      <c r="V31" s="10">
+        <v>4.0027E-2</v>
+      </c>
+      <c r="W31" s="10">
+        <v>2.1845E-2</v>
+      </c>
+      <c r="X31" s="10">
+        <v>0.32341999999999999</v>
+      </c>
+      <c r="Y31" s="9">
+        <f t="shared" si="4"/>
+        <v>0.83941530060317893</v>
+      </c>
+      <c r="Z31" s="10">
+        <v>0.38529999999999998</v>
+      </c>
     </row>
     <row r="32" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D32">
@@ -5152,8 +6091,49 @@
       <c r="L32">
         <v>700</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>30</v>
+      </c>
+      <c r="N32">
+        <v>591</v>
+      </c>
+      <c r="O32">
+        <v>882</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>9.0452000000000005E-2</v>
+      </c>
+      <c r="R32" s="8">
+        <v>0.11019</v>
+      </c>
+      <c r="S32" s="8">
+        <v>0.56476000000000004</v>
+      </c>
+      <c r="T32" s="7">
+        <f t="shared" si="6"/>
+        <v>0.73786062748725512</v>
+      </c>
+      <c r="U32" s="8">
+        <v>0.72165999999999997</v>
+      </c>
+      <c r="V32" s="10">
+        <v>4.9896000000000003E-2</v>
+      </c>
+      <c r="W32" s="10">
+        <v>3.5208999999999997E-2</v>
+      </c>
+      <c r="X32" s="10">
+        <v>0.33693000000000001</v>
+      </c>
+      <c r="Y32" s="9">
+        <f t="shared" si="4"/>
+        <v>0.79834610873505751</v>
+      </c>
+      <c r="Z32" s="10">
+        <v>0.42204000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>54</v>
       </c>
@@ -5177,8 +6157,49 @@
       <c r="L33">
         <v>700</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>46</v>
+      </c>
+      <c r="N33">
+        <v>617</v>
+      </c>
+      <c r="O33">
+        <v>910</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>4.3359000000000002E-2</v>
+      </c>
+      <c r="R33" s="8">
+        <v>0.10426000000000001</v>
+      </c>
+      <c r="S33" s="8">
+        <v>0.56001999999999996</v>
+      </c>
+      <c r="T33" s="7">
+        <f t="shared" si="6"/>
+        <v>0.79139222117492103</v>
+      </c>
+      <c r="U33" s="8">
+        <v>0.70764000000000005</v>
+      </c>
+      <c r="V33" s="10">
+        <v>5.3878000000000002E-2</v>
+      </c>
+      <c r="W33" s="10">
+        <v>4.6829999999999997E-2</v>
+      </c>
+      <c r="X33" s="10">
+        <v>0.35011999999999999</v>
+      </c>
+      <c r="Y33" s="9">
+        <f t="shared" si="4"/>
+        <v>0.77661547197600866</v>
+      </c>
+      <c r="Z33" s="10">
+        <v>0.45829999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>53</v>
       </c>
@@ -5202,8 +6223,49 @@
       <c r="L34">
         <v>700</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>40</v>
+      </c>
+      <c r="N34">
+        <v>618</v>
+      </c>
+      <c r="O34">
+        <v>918</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>3.7962999999999997E-2</v>
+      </c>
+      <c r="R34" s="8">
+        <v>9.5475000000000004E-2</v>
+      </c>
+      <c r="S34" s="8">
+        <v>0.57282</v>
+      </c>
+      <c r="T34" s="7">
+        <f t="shared" si="6"/>
+        <v>0.8110633791050863</v>
+      </c>
+      <c r="U34" s="8">
+        <v>0.70626</v>
+      </c>
+      <c r="V34" s="10">
+        <v>7.4644000000000002E-2</v>
+      </c>
+      <c r="W34" s="10">
+        <v>7.034E-2</v>
+      </c>
+      <c r="X34" s="10">
+        <v>0.32812999999999998</v>
+      </c>
+      <c r="Y34" s="9">
+        <f t="shared" si="4"/>
+        <v>0.69355377350913305</v>
+      </c>
+      <c r="Z34" s="10">
+        <v>0.47310999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>52</v>
       </c>
@@ -5227,8 +6289,49 @@
       <c r="L35">
         <v>700</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>41</v>
+      </c>
+      <c r="N35">
+        <v>624</v>
+      </c>
+      <c r="O35">
+        <v>932</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>2.5753000000000002E-2</v>
+      </c>
+      <c r="R35" s="8">
+        <v>8.6327000000000001E-2</v>
+      </c>
+      <c r="S35" s="8">
+        <v>0.58953999999999995</v>
+      </c>
+      <c r="T35" s="7">
+        <f t="shared" si="6"/>
+        <v>0.8402554089108063</v>
+      </c>
+      <c r="U35" s="8">
+        <v>0.70162000000000002</v>
+      </c>
+      <c r="V35" s="10">
+        <v>0.10731</v>
+      </c>
+      <c r="W35" s="10">
+        <v>8.7749999999999995E-2</v>
+      </c>
+      <c r="X35" s="10">
+        <v>0.29154000000000002</v>
+      </c>
+      <c r="Y35" s="9">
+        <f t="shared" si="4"/>
+        <v>0.59913686806411837</v>
+      </c>
+      <c r="Z35" s="10">
+        <v>0.48659999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>51</v>
       </c>
@@ -5252,8 +6355,49 @@
       <c r="L36">
         <v>700</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>64</v>
+      </c>
+      <c r="N36">
+        <v>641</v>
+      </c>
+      <c r="O36">
+        <v>957</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>5.2306000000000002E-3</v>
+      </c>
+      <c r="R36" s="8">
+        <v>4.5534999999999999E-2</v>
+      </c>
+      <c r="S36" s="8">
+        <v>0.61370999999999998</v>
+      </c>
+      <c r="T36" s="7">
+        <f t="shared" si="6"/>
+        <v>0.92360050542111705</v>
+      </c>
+      <c r="U36" s="8">
+        <v>0.66447000000000001</v>
+      </c>
+      <c r="V36" s="10">
+        <v>0.17902999999999999</v>
+      </c>
+      <c r="W36" s="10">
+        <v>6.5006999999999995E-2</v>
+      </c>
+      <c r="X36" s="10">
+        <v>0.24085000000000001</v>
+      </c>
+      <c r="Y36" s="9">
+        <f t="shared" si="4"/>
+        <v>0.49671366730805327</v>
+      </c>
+      <c r="Z36" s="10">
+        <v>0.48488999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>50</v>
       </c>
@@ -5277,8 +6421,49 @@
       <c r="L37">
         <v>700</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>36</v>
+      </c>
+      <c r="N37">
+        <v>624</v>
+      </c>
+      <c r="O37">
+        <v>945</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>4.2899000000000001E-3</v>
+      </c>
+      <c r="R37" s="8">
+        <v>4.9238999999999998E-2</v>
+      </c>
+      <c r="S37" s="8">
+        <v>0.60618000000000005</v>
+      </c>
+      <c r="T37" s="7">
+        <f t="shared" si="6"/>
+        <v>0.91885981832289976</v>
+      </c>
+      <c r="U37" s="8">
+        <v>0.65971000000000002</v>
+      </c>
+      <c r="V37" s="10">
+        <v>0.17329</v>
+      </c>
+      <c r="W37" s="10">
+        <v>6.7200999999999997E-2</v>
+      </c>
+      <c r="X37" s="10">
+        <v>0.24002000000000001</v>
+      </c>
+      <c r="Y37" s="9">
+        <f t="shared" si="4"/>
+        <v>0.49950989675574542</v>
+      </c>
+      <c r="Z37" s="10">
+        <v>0.48050999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D38">
         <v>49</v>
       </c>
@@ -5302,8 +6487,49 @@
       <c r="L38">
         <v>700</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>28</v>
+      </c>
+      <c r="N38">
+        <v>628</v>
+      </c>
+      <c r="O38">
+        <v>955</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>2.3990999999999999E-3</v>
+      </c>
+      <c r="R38" s="8">
+        <v>6.0942999999999997E-2</v>
+      </c>
+      <c r="S38" s="8">
+        <v>0.60462000000000005</v>
+      </c>
+      <c r="T38" s="7">
+        <f t="shared" si="6"/>
+        <v>0.90517111674449802</v>
+      </c>
+      <c r="U38" s="8">
+        <v>0.66796</v>
+      </c>
+      <c r="V38" s="10">
+        <v>0.17446</v>
+      </c>
+      <c r="W38" s="10">
+        <v>6.0246000000000001E-2</v>
+      </c>
+      <c r="X38" s="10">
+        <v>0.24268000000000001</v>
+      </c>
+      <c r="Y38" s="9">
+        <f>X38/(X38+W38+V38)</f>
+        <v>0.50835173214128604</v>
+      </c>
+      <c r="Z38" s="10">
+        <v>0.47738000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>48</v>
       </c>
@@ -5327,8 +6553,49 @@
       <c r="L39">
         <v>700</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>31</v>
+      </c>
+      <c r="N39">
+        <v>645</v>
+      </c>
+      <c r="O39">
+        <v>975</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>3.3693999999999998E-3</v>
+      </c>
+      <c r="R39" s="8">
+        <v>5.7910000000000003E-2</v>
+      </c>
+      <c r="S39" s="8">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="T39" s="7">
+        <f t="shared" si="6"/>
+        <v>0.90719171308388546</v>
+      </c>
+      <c r="U39" s="8">
+        <v>0.66027999999999998</v>
+      </c>
+      <c r="V39" s="10">
+        <v>0.16137000000000001</v>
+      </c>
+      <c r="W39" s="10">
+        <v>8.1729999999999997E-2</v>
+      </c>
+      <c r="X39" s="10">
+        <v>0.20036999999999999</v>
+      </c>
+      <c r="Y39" s="9">
+        <f t="shared" si="4"/>
+        <v>0.45182312219541337</v>
+      </c>
+      <c r="Z39" s="10">
+        <v>0.44347999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D40">
         <v>47</v>
       </c>
@@ -5352,8 +6619,49 @@
       <c r="L40">
         <v>700</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>17</v>
+      </c>
+      <c r="N40">
+        <v>645</v>
+      </c>
+      <c r="O40">
+        <v>977</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>4.0718000000000004E-3</v>
+      </c>
+      <c r="R40" s="8">
+        <v>4.7461999999999997E-2</v>
+      </c>
+      <c r="S40" s="8">
+        <v>0.59318000000000004</v>
+      </c>
+      <c r="T40" s="7">
+        <f t="shared" si="6"/>
+        <v>0.92006716778824971</v>
+      </c>
+      <c r="U40" s="8">
+        <v>0.64471000000000001</v>
+      </c>
+      <c r="V40" s="10">
+        <v>0.15714</v>
+      </c>
+      <c r="W40" s="10">
+        <v>7.6659000000000005E-2</v>
+      </c>
+      <c r="X40" s="10">
+        <v>0.2016</v>
+      </c>
+      <c r="Y40" s="9">
+        <f t="shared" si="4"/>
+        <v>0.46302357148270895</v>
+      </c>
+      <c r="Z40" s="10">
+        <v>0.43539</v>
+      </c>
+    </row>
+    <row r="41" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>46</v>
       </c>
@@ -5377,8 +6685,49 @@
       <c r="L41">
         <v>700</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>3</v>
+      </c>
+      <c r="N41">
+        <v>650</v>
+      </c>
+      <c r="O41">
+        <v>977</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>1.9217000000000001E-2</v>
+      </c>
+      <c r="R41" s="8">
+        <v>1.2997E-2</v>
+      </c>
+      <c r="S41" s="8">
+        <v>0.54861000000000004</v>
+      </c>
+      <c r="T41" s="7">
+        <f t="shared" si="6"/>
+        <v>0.94453741580926398</v>
+      </c>
+      <c r="U41" s="8">
+        <v>0.58082999999999996</v>
+      </c>
+      <c r="V41" s="10">
+        <v>0.12767999999999999</v>
+      </c>
+      <c r="W41" s="10">
+        <v>6.4227000000000006E-2</v>
+      </c>
+      <c r="X41" s="10">
+        <v>0.20555999999999999</v>
+      </c>
+      <c r="Y41" s="9">
+        <f t="shared" si="4"/>
+        <v>0.5171750107556099</v>
+      </c>
+      <c r="Z41" s="10">
+        <v>0.39745999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D42">
         <v>45</v>
       </c>
@@ -5402,8 +6751,49 @@
       <c r="L42">
         <v>700</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>7</v>
+      </c>
+      <c r="N42">
+        <v>636</v>
+      </c>
+      <c r="O42">
+        <v>964</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>7.4324000000000001E-2</v>
+      </c>
+      <c r="R42" s="8">
+        <v>3.0230000000000001E-3</v>
+      </c>
+      <c r="S42" s="8">
+        <v>0.47161999999999998</v>
+      </c>
+      <c r="T42" s="7">
+        <f t="shared" si="6"/>
+        <v>0.85910446347412506</v>
+      </c>
+      <c r="U42" s="8">
+        <v>0.54896</v>
+      </c>
+      <c r="V42" s="10">
+        <v>0.16933000000000001</v>
+      </c>
+      <c r="W42" s="10">
+        <v>4.9112000000000003E-2</v>
+      </c>
+      <c r="X42" s="10">
+        <v>0.16492999999999999</v>
+      </c>
+      <c r="Y42" s="9">
+        <f t="shared" si="4"/>
+        <v>0.43020877894055898</v>
+      </c>
+      <c r="Z42" s="10">
+        <v>0.38335999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D43">
         <v>44</v>
       </c>
@@ -5427,8 +6817,49 @@
       <c r="L43">
         <v>700</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>660</v>
+      </c>
+      <c r="O43">
+        <v>999</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>1.7978999999999998E-2</v>
+      </c>
+      <c r="R43" s="8">
+        <v>1.0522E-2</v>
+      </c>
+      <c r="S43" s="8">
+        <v>0.47731000000000001</v>
+      </c>
+      <c r="T43" s="7">
+        <f t="shared" si="6"/>
+        <v>0.94365286638685197</v>
+      </c>
+      <c r="U43" s="8">
+        <v>0.50580999999999998</v>
+      </c>
+      <c r="V43" s="10">
+        <v>0.16012000000000001</v>
+      </c>
+      <c r="W43" s="10">
+        <v>5.2893000000000003E-2</v>
+      </c>
+      <c r="X43" s="10">
+        <v>0.14609</v>
+      </c>
+      <c r="Y43" s="9">
+        <f t="shared" si="4"/>
+        <v>0.40681921342901617</v>
+      </c>
+      <c r="Z43" s="10">
+        <v>0.35909999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D44">
         <v>43</v>
       </c>
@@ -5452,8 +6883,49 @@
       <c r="L44">
         <v>700</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>670</v>
+      </c>
+      <c r="O44">
+        <v>1009</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>2.445E-2</v>
+      </c>
+      <c r="R44" s="8">
+        <v>8.7957999999999995E-3</v>
+      </c>
+      <c r="S44" s="8">
+        <v>0.47736000000000001</v>
+      </c>
+      <c r="T44" s="7">
+        <f t="shared" si="6"/>
+        <v>0.93488949792579723</v>
+      </c>
+      <c r="U44" s="8">
+        <v>0.51060000000000005</v>
+      </c>
+      <c r="V44" s="10">
+        <v>0.15573000000000001</v>
+      </c>
+      <c r="W44" s="10">
+        <v>4.6128000000000002E-2</v>
+      </c>
+      <c r="X44" s="10">
+        <v>0.14626</v>
+      </c>
+      <c r="Y44" s="9">
+        <f t="shared" si="4"/>
+        <v>0.42014489339821548</v>
+      </c>
+      <c r="Z44" s="10">
+        <v>0.34810999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D45">
         <v>42</v>
       </c>
@@ -5477,8 +6949,49 @@
       <c r="L45">
         <v>700</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>680</v>
+      </c>
+      <c r="O45">
+        <v>1028</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>2.4152000000000002E-3</v>
+      </c>
+      <c r="R45" s="8">
+        <v>2.4712000000000001E-2</v>
+      </c>
+      <c r="S45" s="8">
+        <v>0.45191999999999999</v>
+      </c>
+      <c r="T45" s="7">
+        <f t="shared" si="6"/>
+        <v>0.94337259460028156</v>
+      </c>
+      <c r="U45" s="8">
+        <v>0.47904999999999998</v>
+      </c>
+      <c r="V45" s="10">
+        <v>0.17619000000000001</v>
+      </c>
+      <c r="W45" s="10">
+        <v>4.1160000000000002E-2</v>
+      </c>
+      <c r="X45" s="10">
+        <v>0.12648999999999999</v>
+      </c>
+      <c r="Y45" s="9">
+        <f t="shared" si="4"/>
+        <v>0.36787459283387614</v>
+      </c>
+      <c r="Z45" s="10">
+        <v>0.34382000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D46">
         <v>41</v>
       </c>
@@ -5502,38 +7015,115 @@
       <c r="L46">
         <v>700</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3">
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>700</v>
+      </c>
+      <c r="O46">
+        <v>1050</v>
+      </c>
+      <c r="Q46" s="8">
+        <v>2.0427000000000002E-3</v>
+      </c>
+      <c r="R46" s="8">
+        <v>2.9548000000000001E-2</v>
+      </c>
+      <c r="S46" s="8">
+        <v>0.40353</v>
+      </c>
+      <c r="T46" s="7">
+        <f t="shared" si="6"/>
+        <v>0.92739784616084686</v>
+      </c>
+      <c r="U46" s="8">
+        <v>0.43512000000000001</v>
+      </c>
+      <c r="V46" s="10">
+        <v>0.17582999999999999</v>
+      </c>
+      <c r="W46" s="10">
+        <v>3.9515000000000002E-2</v>
+      </c>
+      <c r="X46" s="10">
+        <v>0.12673999999999999</v>
+      </c>
+      <c r="Y46" s="9">
+        <f t="shared" si="4"/>
+        <v>0.37049271379920196</v>
+      </c>
+      <c r="Z46" s="10">
+        <v>0.34208</v>
+      </c>
+    </row>
+    <row r="47" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D47">
         <v>40</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47">
         <f t="shared" si="0"/>
         <v>0.69813170079773179</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47">
         <f t="shared" si="1"/>
         <v>1530.832245630646</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3">
+      <c r="I47">
         <v>1530</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47">
         <v>240</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47">
         <v>110</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47">
         <v>700</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="N47">
+        <v>696</v>
+      </c>
+      <c r="O47">
+        <v>1038</v>
+      </c>
+      <c r="Q47" s="8">
+        <v>1.085E-2</v>
+      </c>
+      <c r="R47" s="8">
+        <v>2.9678E-2</v>
+      </c>
+      <c r="S47" s="8">
+        <v>0.30606</v>
+      </c>
+      <c r="T47" s="7">
+        <f t="shared" si="6"/>
+        <v>0.88306577261763242</v>
+      </c>
+      <c r="U47" s="8">
+        <v>0.34659000000000001</v>
+      </c>
+      <c r="V47" s="10">
+        <v>0.14849999999999999</v>
+      </c>
+      <c r="W47" s="10">
+        <v>3.2078000000000002E-2</v>
+      </c>
+      <c r="X47" s="10">
+        <v>9.7333900000000001E-2</v>
+      </c>
+      <c r="Y47" s="9">
+        <f t="shared" si="4"/>
+        <v>0.35023293353037421</v>
+      </c>
+      <c r="Z47" s="10">
+        <v>0.27790999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D48">
         <v>39</v>
       </c>
@@ -5557,8 +7147,49 @@
       <c r="L48">
         <v>700</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>27</v>
+      </c>
+      <c r="N48">
+        <v>705</v>
+      </c>
+      <c r="O48">
+        <v>1053</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>3.8084E-2</v>
+      </c>
+      <c r="R48" s="8">
+        <v>5.5481000000000003E-2</v>
+      </c>
+      <c r="S48" s="8">
+        <v>0.28800999999999999</v>
+      </c>
+      <c r="T48" s="7">
+        <f t="shared" si="6"/>
+        <v>0.7547926357858874</v>
+      </c>
+      <c r="U48" s="8">
+        <v>0.38157000000000002</v>
+      </c>
+      <c r="V48" s="10">
+        <v>0.15758</v>
+      </c>
+      <c r="W48" s="10">
+        <v>3.0259999999999999E-2</v>
+      </c>
+      <c r="X48" s="10">
+        <v>0.12751999999999999</v>
+      </c>
+      <c r="Y48" s="9">
+        <f t="shared" si="4"/>
+        <v>0.40436326737696604</v>
+      </c>
+      <c r="Z48" s="10">
+        <v>0.31536999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D49">
         <v>38</v>
       </c>
@@ -5582,8 +7213,49 @@
       <c r="L49">
         <v>700</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>730</v>
+      </c>
+      <c r="O49">
+        <v>1086</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>2.6877999999999999E-2</v>
+      </c>
+      <c r="R49" s="8">
+        <v>3.0476E-2</v>
+      </c>
+      <c r="S49" s="8">
+        <v>0.28514</v>
+      </c>
+      <c r="T49" s="7">
+        <f t="shared" si="6"/>
+        <v>0.83254013208990518</v>
+      </c>
+      <c r="U49" s="8">
+        <v>0.34249000000000002</v>
+      </c>
+      <c r="V49" s="10">
+        <v>0.12767999999999999</v>
+      </c>
+      <c r="W49" s="10">
+        <v>5.1554000000000003E-2</v>
+      </c>
+      <c r="X49" s="10">
+        <v>8.0554000000000001E-2</v>
+      </c>
+      <c r="Y49" s="9">
+        <f t="shared" si="4"/>
+        <v>0.31007590804810076</v>
+      </c>
+      <c r="Z49" s="10">
+        <v>0.25979000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D50">
         <v>37</v>
       </c>
@@ -5607,8 +7279,49 @@
       <c r="L50">
         <v>700</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>750</v>
+      </c>
+      <c r="O50">
+        <v>1107</v>
+      </c>
+      <c r="Q50" s="8">
+        <v>3.6742999999999998E-2</v>
+      </c>
+      <c r="R50" s="8">
+        <v>3.1614000000000003E-2</v>
+      </c>
+      <c r="S50" s="8">
+        <v>0.26123000000000002</v>
+      </c>
+      <c r="T50" s="7">
+        <f t="shared" si="6"/>
+        <v>0.79259800902341426</v>
+      </c>
+      <c r="U50" s="8">
+        <v>0.32958999999999999</v>
+      </c>
+      <c r="V50" s="10">
+        <v>0.15528</v>
+      </c>
+      <c r="W50" s="10">
+        <v>3.8809999999999997E-2</v>
+      </c>
+      <c r="X50" s="10">
+        <v>0.11724</v>
+      </c>
+      <c r="Y50" s="9">
+        <f t="shared" si="4"/>
+        <v>0.37657790768637778</v>
+      </c>
+      <c r="Z50" s="10">
+        <v>0.31133</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C51" s="7" t="s">
         <v>51</v>
       </c>
@@ -5635,8 +7348,52 @@
       <c r="L51">
         <v>700</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>32</v>
+      </c>
+      <c r="N51">
+        <v>323</v>
+      </c>
+      <c r="O51">
+        <v>662</v>
+      </c>
+      <c r="P51">
+        <v>901</v>
+      </c>
+      <c r="Q51" s="8">
+        <v>0.12421</v>
+      </c>
+      <c r="R51" s="8">
+        <v>8.1852999999999995E-2</v>
+      </c>
+      <c r="S51" s="8">
+        <v>0.23019000000000001</v>
+      </c>
+      <c r="T51" s="7">
+        <f t="shared" si="6"/>
+        <v>0.52765253190235939</v>
+      </c>
+      <c r="U51" s="8">
+        <v>0.43625999999999998</v>
+      </c>
+      <c r="V51" s="10">
+        <v>4.5365000000000003E-2</v>
+      </c>
+      <c r="W51" s="10">
+        <v>1.6664999999999999E-2</v>
+      </c>
+      <c r="X51" s="10">
+        <v>0.45429999999999998</v>
+      </c>
+      <c r="Y51" s="9">
+        <f t="shared" si="4"/>
+        <v>0.87986365309007808</v>
+      </c>
+      <c r="Z51" s="10">
+        <v>0.51632999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D52">
         <v>35</v>
       </c>
@@ -5660,8 +7417,52 @@
       <c r="L52">
         <v>700</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>7</v>
+      </c>
+      <c r="N52">
+        <v>326</v>
+      </c>
+      <c r="O52">
+        <v>675</v>
+      </c>
+      <c r="P52">
+        <v>917</v>
+      </c>
+      <c r="Q52" s="8">
+        <v>6.2015000000000001E-2</v>
+      </c>
+      <c r="R52" s="8">
+        <v>0.11511</v>
+      </c>
+      <c r="S52" s="8">
+        <v>0.30469000000000002</v>
+      </c>
+      <c r="T52" s="7">
+        <f t="shared" si="6"/>
+        <v>0.63237964779012701</v>
+      </c>
+      <c r="U52" s="8">
+        <v>0.48181000000000002</v>
+      </c>
+      <c r="V52" s="10">
+        <v>0.13564000000000001</v>
+      </c>
+      <c r="W52" s="10">
+        <v>4.8981999999999998E-2</v>
+      </c>
+      <c r="X52" s="10">
+        <v>0.34938000000000002</v>
+      </c>
+      <c r="Y52" s="9">
+        <f t="shared" si="4"/>
+        <v>0.65426721248235031</v>
+      </c>
+      <c r="Z52" s="10">
+        <v>0.53400000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D53">
         <v>34</v>
       </c>
@@ -5685,8 +7486,52 @@
       <c r="L53">
         <v>700</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>11</v>
+      </c>
+      <c r="N53">
+        <v>321</v>
+      </c>
+      <c r="O53">
+        <v>670</v>
+      </c>
+      <c r="P53">
+        <v>911</v>
+      </c>
+      <c r="Q53" s="8">
+        <v>8.8003999999999999E-2</v>
+      </c>
+      <c r="R53" s="8">
+        <v>8.6153999999999994E-2</v>
+      </c>
+      <c r="S53" s="8">
+        <v>0.28204000000000001</v>
+      </c>
+      <c r="T53" s="7">
+        <f t="shared" si="6"/>
+        <v>0.61824032547271146</v>
+      </c>
+      <c r="U53" s="8">
+        <v>0.45619999999999999</v>
+      </c>
+      <c r="V53" s="10">
+        <v>0.14030999999999999</v>
+      </c>
+      <c r="W53" s="10">
+        <v>5.1584999999999999E-2</v>
+      </c>
+      <c r="X53" s="10">
+        <v>0.35016000000000003</v>
+      </c>
+      <c r="Y53" s="9">
+        <f t="shared" si="4"/>
+        <v>0.64598610842073234</v>
+      </c>
+      <c r="Z53" s="10">
+        <v>0.54205999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D54">
         <v>33</v>
       </c>
@@ -5710,8 +7555,52 @@
       <c r="L54">
         <v>700</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <v>9</v>
+      </c>
+      <c r="N54">
+        <v>324</v>
+      </c>
+      <c r="O54">
+        <v>674</v>
+      </c>
+      <c r="P54">
+        <v>913</v>
+      </c>
+      <c r="Q54" s="8">
+        <v>0.10217</v>
+      </c>
+      <c r="R54" s="8">
+        <v>8.9778999999999998E-2</v>
+      </c>
+      <c r="S54" s="8">
+        <v>0.28588999999999998</v>
+      </c>
+      <c r="T54" s="7">
+        <f t="shared" si="6"/>
+        <v>0.59829775300885868</v>
+      </c>
+      <c r="U54" s="8">
+        <v>0.47785</v>
+      </c>
+      <c r="V54" s="10">
+        <v>0.14111000000000001</v>
+      </c>
+      <c r="W54" s="10">
+        <v>7.7910999999999994E-2</v>
+      </c>
+      <c r="X54" s="10">
+        <v>0.32234000000000002</v>
+      </c>
+      <c r="Y54" s="9">
+        <f t="shared" si="4"/>
+        <v>0.59542523380886325</v>
+      </c>
+      <c r="Z54" s="10">
+        <v>0.54135</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D55">
         <v>32</v>
       </c>
@@ -5735,8 +7624,52 @@
       <c r="L55">
         <v>700</v>
       </c>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <v>19</v>
+      </c>
+      <c r="N55">
+        <v>321</v>
+      </c>
+      <c r="O55" s="11">
+        <v>662</v>
+      </c>
+      <c r="P55">
+        <v>900</v>
+      </c>
+      <c r="Q55" s="8">
+        <v>0.16694000000000001</v>
+      </c>
+      <c r="R55" s="8">
+        <v>6.5471000000000001E-2</v>
+      </c>
+      <c r="S55" s="8">
+        <v>0.25359999999999999</v>
+      </c>
+      <c r="T55" s="7">
+        <f t="shared" si="6"/>
+        <v>0.5217988893255503</v>
+      </c>
+      <c r="U55" s="8">
+        <v>0.48602000000000001</v>
+      </c>
+      <c r="V55" s="10">
+        <v>5.0604999999999997E-2</v>
+      </c>
+      <c r="W55" s="10">
+        <v>7.9229999999999995E-2</v>
+      </c>
+      <c r="X55" s="10">
+        <v>0.38784999999999997</v>
+      </c>
+      <c r="Y55" s="9">
+        <f t="shared" si="4"/>
+        <v>0.74920076880728625</v>
+      </c>
+      <c r="Z55" s="10">
+        <v>0.51768999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D56">
         <v>31</v>
       </c>
@@ -5749,7 +7682,757 @@
         <v>1910.5383619877909</v>
       </c>
       <c r="I56">
+        <v>1911</v>
+      </c>
+      <c r="J56">
+        <v>240</v>
+      </c>
+      <c r="K56">
+        <v>110</v>
+      </c>
+      <c r="L56">
+        <v>700</v>
+      </c>
+      <c r="M56">
+        <v>3</v>
+      </c>
+      <c r="N56">
+        <v>327</v>
+      </c>
+      <c r="O56">
+        <v>680</v>
+      </c>
+      <c r="P56">
+        <v>921</v>
+      </c>
+      <c r="Q56" s="8">
+        <v>0.11327</v>
+      </c>
+      <c r="R56" s="8">
+        <v>9.1149999999999995E-2</v>
+      </c>
+      <c r="S56" s="8">
+        <v>0.32042999999999999</v>
+      </c>
+      <c r="T56" s="7">
+        <f t="shared" si="6"/>
+        <v>0.61051729065447269</v>
+      </c>
+      <c r="U56" s="8">
+        <v>0.52485999999999999</v>
+      </c>
+      <c r="V56" s="10">
+        <v>0.11924</v>
+      </c>
+      <c r="W56" s="10">
+        <v>8.5625999999999994E-2</v>
+      </c>
+      <c r="X56" s="10">
+        <v>0.31351000000000001</v>
+      </c>
+      <c r="Y56" s="9">
+        <f t="shared" si="4"/>
+        <v>0.60479266015401956</v>
+      </c>
+      <c r="Z56" s="10">
+        <v>0.51837999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2892F4C0-2D59-4D53-B48A-5DBD1C92BD10}">
+  <dimension ref="C2:Y21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E9" si="0">(D2*PI())/180</f>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F9" si="1">$B$1/SIN(E2)</f>
         <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1136</v>
+      </c>
+      <c r="J2">
+        <v>240</v>
+      </c>
+      <c r="K2">
+        <v>110</v>
+      </c>
+      <c r="L2">
+        <v>700</v>
+      </c>
+      <c r="M2">
+        <v>26</v>
+      </c>
+      <c r="N2">
+        <v>326</v>
+      </c>
+      <c r="O2">
+        <v>674</v>
+      </c>
+      <c r="P2">
+        <v>911</v>
+      </c>
+      <c r="Q2">
+        <v>6.6132999999999999E-3</v>
+      </c>
+      <c r="R2">
+        <v>5.4933999999999997E-2</v>
+      </c>
+      <c r="S2">
+        <v>0.61409999999999998</v>
+      </c>
+      <c r="T2" s="5">
+        <f>S2/(S2+R2+Q2)</f>
+        <v>0.90890617042353294</v>
+      </c>
+      <c r="U2">
+        <v>0.67564999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>59</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>1.0297442586766543</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1148</v>
+      </c>
+      <c r="J3">
+        <v>240</v>
+      </c>
+      <c r="K3">
+        <v>110</v>
+      </c>
+      <c r="L3">
+        <v>700</v>
+      </c>
+      <c r="M3">
+        <v>22</v>
+      </c>
+      <c r="N3">
+        <v>328</v>
+      </c>
+      <c r="O3">
+        <v>678</v>
+      </c>
+      <c r="P3">
+        <v>915</v>
+      </c>
+      <c r="Q3">
+        <v>7.2713999999999999E-3</v>
+      </c>
+      <c r="R3">
+        <v>6.7774000000000001E-2</v>
+      </c>
+      <c r="S3">
+        <v>0.60668999999999995</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" ref="T3:T9" si="2">S3/(S3+R3+Q3)</f>
+        <v>0.88992004815944714</v>
+      </c>
+      <c r="U3">
+        <v>0.68172999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>57</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.99483767363676778</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1173</v>
+      </c>
+      <c r="J4">
+        <v>240</v>
+      </c>
+      <c r="K4">
+        <v>110</v>
+      </c>
+      <c r="L4">
+        <v>700</v>
+      </c>
+      <c r="M4">
+        <v>24</v>
+      </c>
+      <c r="N4">
+        <v>329</v>
+      </c>
+      <c r="O4">
+        <v>678</v>
+      </c>
+      <c r="P4">
+        <v>942</v>
+      </c>
+      <c r="Q4">
+        <v>1.7385999999999999E-2</v>
+      </c>
+      <c r="R4">
+        <v>9.2444999999999999E-2</v>
+      </c>
+      <c r="S4">
+        <v>0.59887000000000001</v>
+      </c>
+      <c r="T4" s="5">
+        <f t="shared" si="2"/>
+        <v>0.84502491177520556</v>
+      </c>
+      <c r="U4">
+        <v>0.7087</v>
+      </c>
+    </row>
+    <row r="5" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>56</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.97738438111682457</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1187</v>
+      </c>
+      <c r="J5">
+        <v>240</v>
+      </c>
+      <c r="K5">
+        <v>110</v>
+      </c>
+      <c r="L5">
+        <v>700</v>
+      </c>
+      <c r="M5">
+        <v>20</v>
+      </c>
+      <c r="N5">
+        <v>328</v>
+      </c>
+      <c r="O5">
+        <v>679</v>
+      </c>
+      <c r="P5">
+        <v>917</v>
+      </c>
+      <c r="Q5">
+        <v>1.7367E-2</v>
+      </c>
+      <c r="R5">
+        <v>9.7576999999999997E-2</v>
+      </c>
+      <c r="S5">
+        <v>0.60584000000000005</v>
+      </c>
+      <c r="T5" s="5">
+        <f t="shared" si="2"/>
+        <v>0.84052920153610511</v>
+      </c>
+      <c r="U5">
+        <v>0.72077999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.95993108859688125</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1201</v>
+      </c>
+      <c r="J6">
+        <v>240</v>
+      </c>
+      <c r="K6">
+        <v>110</v>
+      </c>
+      <c r="L6">
+        <v>700</v>
+      </c>
+      <c r="M6">
+        <v>11</v>
+      </c>
+      <c r="N6">
+        <v>324</v>
+      </c>
+      <c r="O6">
+        <v>678</v>
+      </c>
+      <c r="P6">
+        <v>918</v>
+      </c>
+      <c r="Q6">
+        <v>1.4932000000000001E-2</v>
+      </c>
+      <c r="R6">
+        <v>0.10001</v>
+      </c>
+      <c r="S6">
+        <v>0.62256</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.84414686333054001</v>
+      </c>
+      <c r="U6">
+        <v>0.73750000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>46</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.80285145591739149</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>53</v>
+      </c>
+      <c r="N7">
+        <v>351</v>
+      </c>
+      <c r="O7">
+        <v>690</v>
+      </c>
+      <c r="P7">
+        <v>910</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>5.0991000000000002E-2</v>
+      </c>
+      <c r="R7">
+        <v>0.16506000000000001</v>
+      </c>
+      <c r="S7">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="T7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.70527152953887251</v>
+      </c>
+      <c r="U7">
+        <v>0.73306000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>58</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.0122909661567112</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1160</v>
+      </c>
+      <c r="J8">
+        <v>240</v>
+      </c>
+      <c r="K8">
+        <v>110</v>
+      </c>
+      <c r="L8">
+        <v>700</v>
+      </c>
+      <c r="M8">
+        <v>20</v>
+      </c>
+      <c r="N8">
+        <v>327</v>
+      </c>
+      <c r="O8">
+        <v>677</v>
+      </c>
+      <c r="P8">
+        <v>934</v>
+      </c>
+      <c r="Q8">
+        <v>1.1044999999999999E-2</v>
+      </c>
+      <c r="R8">
+        <v>8.0716999999999997E-2</v>
+      </c>
+      <c r="S8">
+        <v>0.60253000000000001</v>
+      </c>
+      <c r="T8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.8678337068553289</v>
+      </c>
+      <c r="U8">
+        <v>0.69428999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.69813170079773179</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1530</v>
+      </c>
+      <c r="J9">
+        <v>240</v>
+      </c>
+      <c r="K9">
+        <v>110</v>
+      </c>
+      <c r="L9">
+        <v>650</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>317</v>
+      </c>
+      <c r="O9">
+        <v>675</v>
+      </c>
+      <c r="P9">
+        <v>911</v>
+      </c>
+      <c r="Q9">
+        <v>0.02</v>
+      </c>
+      <c r="R9">
+        <v>0.1</v>
+      </c>
+      <c r="S9">
+        <v>0.46</v>
+      </c>
+      <c r="T9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.79310344827586199</v>
+      </c>
+      <c r="U9">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>36</v>
+      </c>
+      <c r="I11">
+        <v>1674</v>
+      </c>
+      <c r="J11">
+        <v>240</v>
+      </c>
+      <c r="K11">
+        <v>110</v>
+      </c>
+      <c r="L11">
+        <v>700</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>328</v>
+      </c>
+      <c r="O11">
+        <v>680</v>
+      </c>
+      <c r="P11">
+        <v>900</v>
+      </c>
+      <c r="Q11">
+        <v>2.8035000000000001E-2</v>
+      </c>
+      <c r="R11">
+        <v>0.13142999999999999</v>
+      </c>
+      <c r="S11">
+        <v>0.36432999999999999</v>
+      </c>
+      <c r="T11" s="5">
+        <f>S11/(S11+R11+Q11)</f>
+        <v>0.69555837684590338</v>
+      </c>
+      <c r="U11">
+        <v>0.52378999999999998</v>
+      </c>
+      <c r="W11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>35</v>
+      </c>
+      <c r="I12">
+        <v>1716</v>
+      </c>
+      <c r="J12">
+        <v>240</v>
+      </c>
+      <c r="K12">
+        <v>110</v>
+      </c>
+      <c r="L12">
+        <v>700</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>328</v>
+      </c>
+      <c r="O12">
+        <v>680</v>
+      </c>
+      <c r="P12">
+        <v>900</v>
+      </c>
+      <c r="Q12">
+        <v>2.7252999999999999E-2</v>
+      </c>
+      <c r="R12">
+        <v>0.12107999999999999</v>
+      </c>
+      <c r="S12">
+        <v>0.37545000000000001</v>
+      </c>
+      <c r="T12" s="5">
+        <f>S12/(S12+R12+Q12)</f>
+        <v>0.71680447819039561</v>
+      </c>
+      <c r="U12">
+        <v>0.52378000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>34</v>
+      </c>
+      <c r="I13">
+        <v>1760</v>
+      </c>
+      <c r="J13">
+        <v>240</v>
+      </c>
+      <c r="K13">
+        <v>110</v>
+      </c>
+      <c r="L13">
+        <v>700</v>
+      </c>
+      <c r="M13">
+        <v>7</v>
+      </c>
+      <c r="N13">
+        <v>328</v>
+      </c>
+      <c r="O13">
+        <v>680</v>
+      </c>
+      <c r="P13">
+        <v>904</v>
+      </c>
+      <c r="Q13">
+        <v>4.8923000000000001E-2</v>
+      </c>
+      <c r="R13">
+        <v>8.9857999999999993E-2</v>
+      </c>
+      <c r="S13">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="T13" s="5">
+        <f>S13/(S13+R13+Q13)</f>
+        <v>0.70268498503580912</v>
+      </c>
+      <c r="U13">
+        <v>0.46677999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>33</v>
+      </c>
+      <c r="I14">
+        <v>1807</v>
+      </c>
+      <c r="J14">
+        <v>240</v>
+      </c>
+      <c r="K14">
+        <v>110</v>
+      </c>
+      <c r="L14">
+        <v>700</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>328</v>
+      </c>
+      <c r="O14">
+        <v>680</v>
+      </c>
+      <c r="P14">
+        <v>900</v>
+      </c>
+      <c r="Q14">
+        <v>7.0735000000000006E-2</v>
+      </c>
+      <c r="R14">
+        <v>0.10799</v>
+      </c>
+      <c r="S14">
+        <v>0.34245999999999999</v>
+      </c>
+      <c r="T14" s="5">
+        <f>S14/(S14+R14+Q14)</f>
+        <v>0.65707953989466306</v>
+      </c>
+      <c r="U14">
+        <v>0.52117999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>32</v>
+      </c>
+      <c r="I15">
+        <v>1857</v>
+      </c>
+      <c r="N15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>740</v>
+      </c>
+      <c r="O17">
+        <v>1172</v>
+      </c>
+      <c r="R17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>36</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>740</v>
+      </c>
+      <c r="O18">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>35</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19">
+        <v>750</v>
+      </c>
+      <c r="O19">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>34</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>770</v>
+      </c>
+      <c r="O20">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>33</v>
+      </c>
+      <c r="M21">
+        <v>15</v>
+      </c>
+      <c r="N21">
+        <v>732</v>
+      </c>
+      <c r="O21">
+        <v>1857</v>
       </c>
     </row>
   </sheetData>
